--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3233431.666935015</v>
+        <v>3233044.956533215</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247834.3978644318</v>
+        <v>247834.3978644324</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7537779.80211255</v>
+        <v>7537779.802112551</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.226677166174134</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -710,19 +710,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>298.358318254418</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>19.60037447571355</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>136.8662720248725</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
-        <v>57.19921267063027</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>11.57315202520409</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>325.9533506974323</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>106.8151638219513</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>135.0678047665523</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1023,7 +1023,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1032,7 +1032,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>60.32590131726141</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>147.9354366772953</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.88606849311432</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>33.93645047002001</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>318.6353240042687</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1218,13 +1218,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>109.6081688639339</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1272,7 +1272,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>161.8832377500051</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>57.47800331083533</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>255.6655596168399</v>
+        <v>231.4339799530614</v>
       </c>
       <c r="E11" t="n">
         <v>277.4076971867455</v>
@@ -1382,7 +1382,7 @@
         <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
-        <v>177.2395632044051</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>216.0628961504551</v>
@@ -1427,16 +1427,16 @@
         <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
         <v>264.7796735655128</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>57.87084530196919</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>122.7710337916636</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
@@ -1543,10 +1543,10 @@
         <v>53.80038563761975</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031018</v>
+        <v>44.3487532603102</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>296.5795132747226</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>216.0628961504551</v>
+        <v>184.0440463562383</v>
       </c>
       <c r="I14" t="n">
         <v>57.65886129508321</v>
@@ -1670,7 +1670,7 @@
         <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0447611546543</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
         <v>276.1762713617116</v>
@@ -1695,7 +1695,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>113.3584379847357</v>
       </c>
       <c r="G15" t="n">
         <v>127.4412149769483</v>
@@ -1704,7 +1704,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>99.11136825394725</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
         <v>216.3098444776729</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.0992794299672</v>
+        <v>219.0992794299671</v>
       </c>
       <c r="C17" t="n">
-        <v>207.1105963876489</v>
+        <v>207.1105963876488</v>
       </c>
       <c r="D17" t="n">
-        <v>198.0919004321769</v>
+        <v>198.0919004321768</v>
       </c>
       <c r="E17" t="n">
-        <v>219.8340380020824</v>
+        <v>219.8340380020823</v>
       </c>
       <c r="F17" t="n">
-        <v>239.0058540900596</v>
+        <v>239.0058540900595</v>
       </c>
       <c r="G17" t="n">
-        <v>240.9391219874821</v>
+        <v>240.939121987482</v>
       </c>
       <c r="H17" t="n">
-        <v>158.489236965792</v>
+        <v>158.4892369657919</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08520211042016967</v>
+        <v>0.08520211042008441</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.3528609230778</v>
+        <v>14.35286092307771</v>
       </c>
       <c r="T17" t="n">
-        <v>51.11153211342716</v>
+        <v>51.11153211342707</v>
       </c>
       <c r="U17" t="n">
-        <v>81.33265823027412</v>
+        <v>81.33265823027403</v>
       </c>
       <c r="V17" t="n">
-        <v>162.6056566701463</v>
+        <v>162.6056566701462</v>
       </c>
       <c r="W17" t="n">
-        <v>187.9057561481032</v>
+        <v>187.9057561481031</v>
       </c>
       <c r="X17" t="n">
-        <v>207.2060143808498</v>
+        <v>207.2060143808497</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.6026121770486</v>
+        <v>218.6026121770485</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>107.4527928920597</v>
       </c>
       <c r="H18" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>63.58460757565975</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.71599030466425</v>
+        <v>10.71599030466416</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.56884027747753</v>
+        <v>40.56884027747745</v>
       </c>
       <c r="T19" t="n">
-        <v>59.84333895960617</v>
+        <v>59.84333895960609</v>
       </c>
       <c r="U19" t="n">
         <v>113.3145124229193</v>
       </c>
       <c r="V19" t="n">
-        <v>87.12412670428984</v>
+        <v>87.12412670428975</v>
       </c>
       <c r="W19" t="n">
-        <v>112.2910127749031</v>
+        <v>112.291012774903</v>
       </c>
       <c r="X19" t="n">
-        <v>57.93611477070621</v>
+        <v>57.93611477070613</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.8109825267739</v>
+        <v>48.81098252677381</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>158.4892369657919</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0852021104209939</v>
+        <v>0.08520211042008441</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>113.3584379847357</v>
       </c>
       <c r="G21" t="n">
-        <v>39.75433043522096</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>39.75433043522006</v>
       </c>
       <c r="H24" t="n">
-        <v>78.95005679388122</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.6729386146302</v>
+        <v>271.8267233518972</v>
       </c>
       <c r="C26" t="n">
         <v>264.6842555723119</v>
       </c>
       <c r="D26" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747226</v>
+        <v>296.5795132747227</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H26" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508321</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774084</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T26" t="n">
-        <v>89.0273362955793</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
         <v>138.9063174149372</v>
@@ -2615,13 +2615,13 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X26" t="n">
-        <v>264.7796735655128</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157.8252483534483</v>
+        <v>143.2597570679445</v>
       </c>
       <c r="C27" t="n">
         <v>160.0866360314548</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13297117133602</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932729</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472777</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230616</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808561</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627192</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761975</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031018</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513952</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355683</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214058</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2773,13 +2773,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W28" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X28" t="n">
         <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
-        <v>204.7164763448559</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>252.1306345456049</v>
       </c>
       <c r="G29" t="n">
         <v>298.5127811721451</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>57.6588612950832</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X29" t="n">
         <v>264.7796735655128</v>
@@ -2886,10 +2886,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326535</v>
       </c>
       <c r="I30" t="n">
-        <v>53.13297117133602</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E31" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F31" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3013,7 +3013,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
         <v>106.3846417114369</v>
@@ -3029,25 +3029,25 @@
         <v>248.452416085674</v>
       </c>
       <c r="C32" t="n">
-        <v>236.4637330433558</v>
+        <v>236.4637330433557</v>
       </c>
       <c r="D32" t="n">
         <v>227.4450370878837</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1871746577893</v>
+        <v>249.1871746577892</v>
       </c>
       <c r="F32" t="n">
         <v>268.3589907457664</v>
       </c>
       <c r="G32" t="n">
-        <v>270.292258643189</v>
+        <v>270.2922586431889</v>
       </c>
       <c r="H32" t="n">
-        <v>187.8423736214989</v>
+        <v>187.8423736214988</v>
       </c>
       <c r="I32" t="n">
-        <v>29.43833876612703</v>
+        <v>29.43833876612698</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.70599757878466</v>
+        <v>43.7059975787846</v>
       </c>
       <c r="T32" t="n">
-        <v>80.46466876913402</v>
+        <v>80.46466876913397</v>
       </c>
       <c r="U32" t="n">
-        <v>110.685794885981</v>
+        <v>110.6857948859809</v>
       </c>
       <c r="V32" t="n">
-        <v>191.9587933258532</v>
+        <v>191.9587933258531</v>
       </c>
       <c r="W32" t="n">
-        <v>217.2588928038101</v>
+        <v>217.25889280381</v>
       </c>
       <c r="X32" t="n">
-        <v>236.5591510365567</v>
+        <v>236.5591510365566</v>
       </c>
       <c r="Y32" t="n">
         <v>247.9557488327554</v>
@@ -3123,10 +3123,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326558</v>
       </c>
       <c r="I33" t="n">
-        <v>53.13297117133624</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.06912696037111</v>
+        <v>40.06912696037105</v>
       </c>
       <c r="C34" t="n">
-        <v>26.26912180577159</v>
+        <v>26.26912180577153</v>
       </c>
       <c r="D34" t="n">
-        <v>9.89048620334998</v>
+        <v>9.890486203349923</v>
       </c>
       <c r="E34" t="n">
-        <v>8.838236059129429</v>
+        <v>8.838236059129372</v>
       </c>
       <c r="F34" t="n">
-        <v>9.305160387315738</v>
+        <v>9.305160387315681</v>
       </c>
       <c r="G34" t="n">
-        <v>25.57986310866357</v>
+        <v>25.57986310866352</v>
       </c>
       <c r="H34" t="n">
-        <v>16.12823073135399</v>
+        <v>16.12823073135394</v>
       </c>
       <c r="I34" t="n">
-        <v>1.110325916183342</v>
+        <v>1.110325916183285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.375875534600652</v>
+        <v>6.375875534600596</v>
       </c>
       <c r="S34" t="n">
-        <v>69.9219769331844</v>
+        <v>69.92197693318434</v>
       </c>
       <c r="T34" t="n">
-        <v>89.19647561531303</v>
+        <v>89.19647561531298</v>
       </c>
       <c r="U34" t="n">
-        <v>142.6676490786262</v>
+        <v>142.6676490786261</v>
       </c>
       <c r="V34" t="n">
-        <v>116.4772633599967</v>
+        <v>116.4772633599966</v>
       </c>
       <c r="W34" t="n">
-        <v>141.64414943061</v>
+        <v>141.6441494306099</v>
       </c>
       <c r="X34" t="n">
-        <v>87.28925142641307</v>
+        <v>87.28925142641302</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.16411918248076</v>
+        <v>78.1641191824807</v>
       </c>
     </row>
     <row r="35">
@@ -3354,7 +3354,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>118.7813687841207</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
         <v>127.4412149769483</v>
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>53.1329711713359</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.7437828235485</v>
+        <v>229.7437828235483</v>
       </c>
       <c r="C41" t="n">
-        <v>217.7550997812303</v>
+        <v>217.7550997812301</v>
       </c>
       <c r="D41" t="n">
-        <v>208.7364038257583</v>
+        <v>208.736403825758</v>
       </c>
       <c r="E41" t="n">
-        <v>230.4785413956638</v>
+        <v>154.6620892521703</v>
       </c>
       <c r="F41" t="n">
-        <v>249.650357483641</v>
+        <v>249.6503574836407</v>
       </c>
       <c r="G41" t="n">
-        <v>251.5836253810635</v>
+        <v>251.5836253810633</v>
       </c>
       <c r="H41" t="n">
-        <v>169.1337403593734</v>
+        <v>169.1337403593732</v>
       </c>
       <c r="I41" t="n">
-        <v>10.72970550400154</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.99736431665917</v>
+        <v>24.99736431665895</v>
       </c>
       <c r="T41" t="n">
-        <v>61.75603550700853</v>
+        <v>61.75603550700831</v>
       </c>
       <c r="U41" t="n">
-        <v>91.97716162385549</v>
+        <v>91.97716162385527</v>
       </c>
       <c r="V41" t="n">
-        <v>86.70400241622957</v>
+        <v>173.2501600637274</v>
       </c>
       <c r="W41" t="n">
-        <v>198.5502595416846</v>
+        <v>198.5502595416843</v>
       </c>
       <c r="X41" t="n">
-        <v>217.8505177744312</v>
+        <v>217.850517774431</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.2471155706299</v>
+        <v>229.2471155706297</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>53.13297117133634</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.36049369824562</v>
+        <v>21.36049369824539</v>
       </c>
       <c r="C43" t="n">
-        <v>7.560488543646102</v>
+        <v>7.560488543645874</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.871229846538085</v>
+        <v>6.871229846537858</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.21334367105891</v>
+        <v>51.21334367105868</v>
       </c>
       <c r="T43" t="n">
-        <v>70.48784235318755</v>
+        <v>70.48784235318732</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9590158165007</v>
+        <v>123.9590158165005</v>
       </c>
       <c r="V43" t="n">
-        <v>97.76863009787121</v>
+        <v>97.76863009787098</v>
       </c>
       <c r="W43" t="n">
-        <v>122.9355161684845</v>
+        <v>122.9355161684842</v>
       </c>
       <c r="X43" t="n">
-        <v>68.58061816428759</v>
+        <v>68.58061816428736</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.45548592035527</v>
+        <v>59.45548592035504</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>143.1976251760501</v>
+        <v>229.7437828235483</v>
       </c>
       <c r="C44" t="n">
-        <v>217.7550997812303</v>
+        <v>217.7550997812301</v>
       </c>
       <c r="D44" t="n">
-        <v>208.7364038257583</v>
+        <v>208.7364038257581</v>
       </c>
       <c r="E44" t="n">
-        <v>230.4785413956638</v>
+        <v>230.4785413956636</v>
       </c>
       <c r="F44" t="n">
-        <v>249.650357483641</v>
+        <v>249.6503574836408</v>
       </c>
       <c r="G44" t="n">
-        <v>251.5836253810635</v>
+        <v>165.0374677335684</v>
       </c>
       <c r="H44" t="n">
-        <v>169.1337403593734</v>
+        <v>169.1337403593732</v>
       </c>
       <c r="I44" t="n">
-        <v>10.72970550400157</v>
+        <v>10.72970550400134</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.9973643166592</v>
+        <v>24.99736431665897</v>
       </c>
       <c r="T44" t="n">
-        <v>61.75603550700856</v>
+        <v>61.75603550700833</v>
       </c>
       <c r="U44" t="n">
-        <v>91.97716162385552</v>
+        <v>91.9771616238553</v>
       </c>
       <c r="V44" t="n">
-        <v>173.2501600637277</v>
+        <v>173.2501600637275</v>
       </c>
       <c r="W44" t="n">
-        <v>198.5502595416846</v>
+        <v>198.5502595416844</v>
       </c>
       <c r="X44" t="n">
-        <v>217.8505177744312</v>
+        <v>217.850517774431</v>
       </c>
       <c r="Y44" t="n">
-        <v>229.24711557063</v>
+        <v>229.2471155706297</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I45" t="n">
-        <v>53.13297117133636</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.36049369824565</v>
+        <v>21.36049369824542</v>
       </c>
       <c r="C46" t="n">
-        <v>7.56048854364613</v>
+        <v>7.560488543645903</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.871229846538114</v>
+        <v>6.871229846537886</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.21334367105894</v>
+        <v>51.21334367105871</v>
       </c>
       <c r="T46" t="n">
-        <v>70.48784235318757</v>
+        <v>70.48784235318735</v>
       </c>
       <c r="U46" t="n">
-        <v>123.9590158165007</v>
+        <v>123.9590158165005</v>
       </c>
       <c r="V46" t="n">
-        <v>97.76863009787124</v>
+        <v>97.76863009787101</v>
       </c>
       <c r="W46" t="n">
-        <v>122.9355161684845</v>
+        <v>122.9355161684843</v>
       </c>
       <c r="X46" t="n">
-        <v>68.58061816428761</v>
+        <v>68.58061816428739</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.4554859203553</v>
+        <v>59.45548592035507</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1377.999744901852</v>
+        <v>234.8484935636316</v>
       </c>
       <c r="C2" t="n">
-        <v>1377.999744901852</v>
+        <v>234.8484935636316</v>
       </c>
       <c r="D2" t="n">
-        <v>1377.999744901852</v>
+        <v>234.8484935636316</v>
       </c>
       <c r="E2" t="n">
-        <v>1375.750576047131</v>
+        <v>234.8484935636316</v>
       </c>
       <c r="F2" t="n">
-        <v>961.5993853573009</v>
+        <v>224.737706914206</v>
       </c>
       <c r="G2" t="n">
-        <v>545.4953988114888</v>
+        <v>212.674124408798</v>
       </c>
       <c r="H2" t="n">
-        <v>212.6741244087981</v>
+        <v>212.674124408798</v>
       </c>
       <c r="I2" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759406</v>
       </c>
       <c r="J2" t="n">
         <v>111.8554698903997</v>
       </c>
       <c r="K2" t="n">
-        <v>245.7966482385295</v>
+        <v>351.9958419351825</v>
       </c>
       <c r="L2" t="n">
-        <v>593.6820213234757</v>
+        <v>699.8812150201288</v>
       </c>
       <c r="M2" t="n">
-        <v>986.9211875765636</v>
+        <v>1093.120381273217</v>
       </c>
       <c r="N2" t="n">
         <v>1365.252546264279</v>
@@ -4352,28 +4352,28 @@
         <v>1992.846280879703</v>
       </c>
       <c r="R2" t="n">
-        <v>1902.207994375557</v>
+        <v>1902.207994375556</v>
       </c>
       <c r="S2" t="n">
-        <v>1714.979019005911</v>
+        <v>1714.97901900591</v>
       </c>
       <c r="T2" t="n">
-        <v>1714.979019005911</v>
+        <v>1490.620072736921</v>
       </c>
       <c r="U2" t="n">
-        <v>1714.979019005911</v>
+        <v>1235.734736450916</v>
       </c>
       <c r="V2" t="n">
-        <v>1377.999744901852</v>
+        <v>898.7554623468568</v>
       </c>
       <c r="W2" t="n">
-        <v>1377.999744901852</v>
+        <v>536.2205322044579</v>
       </c>
       <c r="X2" t="n">
-        <v>1377.999744901852</v>
+        <v>234.8484935636316</v>
       </c>
       <c r="Y2" t="n">
-        <v>1377.999744901852</v>
+        <v>234.8484935636316</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>594.8292489461312</v>
+        <v>784.4758880695124</v>
       </c>
       <c r="C3" t="n">
-        <v>433.1255761870859</v>
+        <v>622.7722153104671</v>
       </c>
       <c r="D3" t="n">
-        <v>294.286939177298</v>
+        <v>483.9335783006792</v>
       </c>
       <c r="E3" t="n">
-        <v>294.286939177298</v>
+        <v>336.9055683575505</v>
       </c>
       <c r="F3" t="n">
-        <v>159.5931411271723</v>
+        <v>336.9055683575505</v>
       </c>
       <c r="G3" t="n">
-        <v>159.5931411271723</v>
+        <v>208.177068380835</v>
       </c>
       <c r="H3" t="n">
-        <v>59.65528367387039</v>
+        <v>108.2392109275331</v>
       </c>
       <c r="I3" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759406</v>
       </c>
       <c r="J3" t="n">
-        <v>39.85692561759407</v>
+        <v>100.1110721507002</v>
       </c>
       <c r="K3" t="n">
-        <v>269.3474781777827</v>
+        <v>329.6016247108889</v>
       </c>
       <c r="L3" t="n">
-        <v>635.1693233478984</v>
+        <v>695.4234698810045</v>
       </c>
       <c r="M3" t="n">
-        <v>1120.202676858125</v>
+        <v>695.4234698810045</v>
       </c>
       <c r="N3" t="n">
-        <v>1613.432131375851</v>
+        <v>1140.77878103426</v>
       </c>
       <c r="O3" t="n">
-        <v>1835.074651094109</v>
+        <v>1532.978731818411</v>
       </c>
       <c r="P3" t="n">
         <v>1835.074651094109</v>
@@ -4434,25 +4434,25 @@
         <v>1933.062011974649</v>
       </c>
       <c r="S3" t="n">
-        <v>1780.262524987389</v>
+        <v>1933.062011974649</v>
       </c>
       <c r="T3" t="n">
-        <v>1591.577421153375</v>
+        <v>1744.376908140634</v>
       </c>
       <c r="U3" t="n">
-        <v>1373.082628751685</v>
+        <v>1744.376908140634</v>
       </c>
       <c r="V3" t="n">
-        <v>1144.687006200019</v>
+        <v>1515.981285588968</v>
       </c>
       <c r="W3" t="n">
-        <v>1144.687006200019</v>
+        <v>1274.665416822278</v>
       </c>
       <c r="X3" t="n">
-        <v>946.7700180778132</v>
+        <v>1136.416657201194</v>
       </c>
       <c r="Y3" t="n">
-        <v>754.248691727392</v>
+        <v>943.8953308507732</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759406</v>
       </c>
       <c r="C4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759406</v>
       </c>
       <c r="D4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759406</v>
       </c>
       <c r="E4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759406</v>
       </c>
       <c r="F4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759406</v>
       </c>
       <c r="G4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759406</v>
       </c>
       <c r="H4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759406</v>
       </c>
       <c r="I4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759406</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759406</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46111336223748</v>
+        <v>73.46111336223747</v>
       </c>
       <c r="L4" t="n">
         <v>174.068192762497</v>
@@ -4501,37 +4501,37 @@
         <v>410.4840406396991</v>
       </c>
       <c r="O4" t="n">
-        <v>508.9476871353888</v>
+        <v>508.9476871353887</v>
       </c>
       <c r="P4" t="n">
         <v>571.9161708635265</v>
       </c>
       <c r="Q4" t="n">
-        <v>533.3788295172155</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="R4" t="n">
-        <v>533.3788295172155</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="S4" t="n">
-        <v>319.6690669209031</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="T4" t="n">
-        <v>319.6690669209031</v>
+        <v>338.7372176792054</v>
       </c>
       <c r="U4" t="n">
-        <v>319.6690669209031</v>
+        <v>51.54697816830526</v>
       </c>
       <c r="V4" t="n">
-        <v>261.892084425317</v>
+        <v>51.54697816830526</v>
       </c>
       <c r="W4" t="n">
-        <v>261.892084425317</v>
+        <v>51.54697816830526</v>
       </c>
       <c r="X4" t="n">
-        <v>261.892084425317</v>
+        <v>39.85692561759406</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759406</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>764.1010683304893</v>
+        <v>629.6342134575248</v>
       </c>
       <c r="C5" t="n">
-        <v>764.1010683304893</v>
+        <v>629.6342134575248</v>
       </c>
       <c r="D5" t="n">
-        <v>391.2771035577128</v>
+        <v>629.6342134575248</v>
       </c>
       <c r="E5" t="n">
-        <v>62.03129477242766</v>
+        <v>234.8484935636316</v>
       </c>
       <c r="F5" t="n">
-        <v>51.92050812300204</v>
+        <v>224.737706914206</v>
       </c>
       <c r="G5" t="n">
-        <v>39.85692561759407</v>
+        <v>212.6741244087981</v>
       </c>
       <c r="H5" t="n">
-        <v>39.85692561759407</v>
+        <v>212.6741244087981</v>
       </c>
       <c r="I5" t="n">
         <v>39.85692561759407</v>
       </c>
       <c r="J5" t="n">
-        <v>100.0885298802837</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="K5" t="n">
-        <v>340.2289019250665</v>
+        <v>279.9972976623768</v>
       </c>
       <c r="L5" t="n">
-        <v>688.1142750100128</v>
+        <v>627.8826707473231</v>
       </c>
       <c r="M5" t="n">
-        <v>1081.353441263101</v>
+        <v>1021.121837000411</v>
       </c>
       <c r="N5" t="n">
-        <v>1459.684799950816</v>
+        <v>1399.453195688127</v>
       </c>
       <c r="O5" t="n">
-        <v>1764.68938442365</v>
+        <v>1670.257130737113</v>
       </c>
       <c r="P5" t="n">
-        <v>1992.846280879703</v>
+        <v>1898.414027193166</v>
       </c>
       <c r="Q5" t="n">
         <v>1992.846280879703</v>
       </c>
       <c r="R5" t="n">
-        <v>1902.207994375557</v>
+        <v>1992.846280879703</v>
       </c>
       <c r="S5" t="n">
-        <v>1902.207994375557</v>
+        <v>1992.846280879703</v>
       </c>
       <c r="T5" t="n">
-        <v>1902.207994375557</v>
+        <v>1768.487334610714</v>
       </c>
       <c r="U5" t="n">
-        <v>1902.207994375557</v>
+        <v>1513.601998324708</v>
       </c>
       <c r="V5" t="n">
-        <v>1902.207994375557</v>
+        <v>1513.601998324708</v>
       </c>
       <c r="W5" t="n">
-        <v>1539.673064233158</v>
+        <v>1513.601998324708</v>
       </c>
       <c r="X5" t="n">
-        <v>1157.642923754651</v>
+        <v>1131.571857846202</v>
       </c>
       <c r="Y5" t="n">
-        <v>764.1010683304893</v>
+        <v>1023.677752975544</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>506.3128671667009</v>
+        <v>680.3931916565482</v>
       </c>
       <c r="C6" t="n">
-        <v>344.6091944076555</v>
+        <v>518.6895188975029</v>
       </c>
       <c r="D6" t="n">
-        <v>208.177068380835</v>
+        <v>518.6895188975029</v>
       </c>
       <c r="E6" t="n">
-        <v>208.177068380835</v>
+        <v>371.6615089543741</v>
       </c>
       <c r="F6" t="n">
-        <v>208.177068380835</v>
+        <v>236.9677109042485</v>
       </c>
       <c r="G6" t="n">
-        <v>208.177068380835</v>
+        <v>108.2392109275331</v>
       </c>
       <c r="H6" t="n">
         <v>108.2392109275331</v>
@@ -4644,22 +4644,22 @@
         <v>39.85692561759407</v>
       </c>
       <c r="J6" t="n">
-        <v>60.43302979373036</v>
+        <v>100.1110721507002</v>
       </c>
       <c r="K6" t="n">
-        <v>289.923582353919</v>
+        <v>329.6016247108889</v>
       </c>
       <c r="L6" t="n">
-        <v>655.7454275240347</v>
+        <v>647.5493265165342</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.778781034261</v>
+        <v>647.5493265165342</v>
       </c>
       <c r="N6" t="n">
         <v>1140.778781034261</v>
       </c>
       <c r="O6" t="n">
-        <v>1532.978731818412</v>
+        <v>1532.978731818411</v>
       </c>
       <c r="P6" t="n">
         <v>1835.074651094109</v>
@@ -4671,25 +4671,25 @@
         <v>1933.062011974649</v>
       </c>
       <c r="S6" t="n">
-        <v>1933.062011974649</v>
+        <v>1780.262524987389</v>
       </c>
       <c r="T6" t="n">
-        <v>1744.376908140634</v>
+        <v>1591.577421153374</v>
       </c>
       <c r="U6" t="n">
-        <v>1525.882115738945</v>
+        <v>1373.082628751684</v>
       </c>
       <c r="V6" t="n">
-        <v>1297.486493187278</v>
+        <v>1312.147374895865</v>
       </c>
       <c r="W6" t="n">
-        <v>1056.170624420588</v>
+        <v>1070.831506129175</v>
       </c>
       <c r="X6" t="n">
-        <v>858.253636298383</v>
+        <v>872.9145180069694</v>
       </c>
       <c r="Y6" t="n">
-        <v>665.7323099479618</v>
+        <v>680.3931916565482</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="C7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="D7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="E7" t="n">
-        <v>208.7766742497441</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="F7" t="n">
-        <v>208.7766742497441</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="G7" t="n">
         <v>39.85692561759407</v>
@@ -4744,31 +4744,31 @@
         <v>571.9161708635265</v>
       </c>
       <c r="Q7" t="n">
-        <v>571.9161708635265</v>
+        <v>533.3788295172155</v>
       </c>
       <c r="R7" t="n">
-        <v>571.9161708635265</v>
+        <v>514.3019926554839</v>
       </c>
       <c r="S7" t="n">
-        <v>358.2064082672141</v>
+        <v>300.5922300591715</v>
       </c>
       <c r="T7" t="n">
-        <v>358.2064082672141</v>
+        <v>300.5922300591715</v>
       </c>
       <c r="U7" t="n">
-        <v>358.2064082672141</v>
+        <v>300.5922300591715</v>
       </c>
       <c r="V7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="W7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="X7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759407</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759407</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>991.7735474872059</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="C8" t="n">
-        <v>609.8397888200133</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="D8" t="n">
-        <v>237.0158240472368</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="E8" t="n">
-        <v>237.0158240472368</v>
+        <v>973.8775024903316</v>
       </c>
       <c r="F8" t="n">
-        <v>226.9050373978112</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
         <v>214.8414548924032</v>
@@ -4829,25 +4829,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>2066.933562160951</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>2066.933562160951</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>2066.933562160951</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1729.954288056892</v>
       </c>
       <c r="W8" t="n">
-        <v>2101.212805059961</v>
+        <v>1367.419357914494</v>
       </c>
       <c r="X8" t="n">
-        <v>1779.358942429387</v>
+        <v>1367.419357914494</v>
       </c>
       <c r="Y8" t="n">
-        <v>1385.817087005225</v>
+        <v>973.8775024903316</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.6641732647531</v>
+        <v>539.6773511566869</v>
       </c>
       <c r="C9" t="n">
-        <v>359.9605005057078</v>
+        <v>377.9736783976416</v>
       </c>
       <c r="D9" t="n">
-        <v>221.1218634959199</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="E9" t="n">
-        <v>110.4065414111382</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="F9" t="n">
-        <v>110.4065414111382</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G9" t="n">
         <v>110.4065414111382</v>
@@ -4881,16 +4881,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M9" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
         <v>1249.145305214519</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1312.837799285331</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1071.521930518641</v>
+        <v>1089.535108410574</v>
       </c>
       <c r="X9" t="n">
-        <v>873.6049423964351</v>
+        <v>891.6181202883689</v>
       </c>
       <c r="Y9" t="n">
-        <v>681.083616046014</v>
+        <v>699.0967939379477</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>421.0116081748944</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>269.0025939362132</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -4993,19 +4993,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1610.500748067948</v>
+        <v>1139.636709239164</v>
       </c>
       <c r="C11" t="n">
-        <v>1343.142914156522</v>
+        <v>1139.636709239164</v>
       </c>
       <c r="D11" t="n">
-        <v>1084.894874139512</v>
+        <v>905.8650123168804</v>
       </c>
       <c r="E11" t="n">
-        <v>804.6850790013848</v>
+        <v>625.6552171787537</v>
       </c>
       <c r="F11" t="n">
-        <v>505.1098130673219</v>
+        <v>326.0799512446904</v>
       </c>
       <c r="G11" t="n">
         <v>326.0799512446904</v>
@@ -5036,55 +5036,55 @@
         <v>107.8346015977661</v>
       </c>
       <c r="I11" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J11" t="n">
-        <v>233.8877356882608</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K11" t="n">
-        <v>586.3239715861703</v>
+        <v>361.732243879917</v>
       </c>
       <c r="L11" t="n">
-        <v>944.744975456658</v>
+        <v>821.9134808179898</v>
       </c>
       <c r="M11" t="n">
-        <v>1337.984141709746</v>
+        <v>1249.149557107031</v>
       </c>
       <c r="N11" t="n">
-        <v>1716.315500397462</v>
+        <v>1739.776779647873</v>
       </c>
       <c r="O11" t="n">
-        <v>2021.320084870296</v>
+        <v>2044.781364120707</v>
       </c>
       <c r="P11" t="n">
-        <v>2249.476981326349</v>
+        <v>2272.938260576761</v>
       </c>
       <c r="Q11" t="n">
-        <v>2456.205098866013</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R11" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="S11" t="n">
-        <v>2407.013327502546</v>
+        <v>2407.013327502545</v>
       </c>
       <c r="T11" t="n">
-        <v>2297.230305989323</v>
+        <v>2297.230305989322</v>
       </c>
       <c r="U11" t="n">
-        <v>2156.920894459084</v>
+        <v>2156.920894459082</v>
       </c>
       <c r="V11" t="n">
-        <v>2156.920894459084</v>
+        <v>1934.51754511079</v>
       </c>
       <c r="W11" t="n">
-        <v>2156.920894459084</v>
+        <v>1686.558539724157</v>
       </c>
       <c r="X11" t="n">
-        <v>1889.466678736344</v>
+        <v>1419.104324001417</v>
       </c>
       <c r="Y11" t="n">
-        <v>1610.500748067948</v>
+        <v>1419.104324001417</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161622</v>
       </c>
       <c r="C12" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571169</v>
       </c>
       <c r="D12" t="n">
-        <v>628.3637782955393</v>
+        <v>539.791167647329</v>
       </c>
       <c r="E12" t="n">
         <v>481.3357683524106</v>
@@ -5115,55 +5115,55 @@
         <v>117.9756128722675</v>
       </c>
       <c r="I12" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J12" t="n">
-        <v>49.5933275623285</v>
+        <v>109.8474740954346</v>
       </c>
       <c r="K12" t="n">
-        <v>265.478033467519</v>
+        <v>339.3380266556233</v>
       </c>
       <c r="L12" t="n">
-        <v>631.2998786376346</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.333232147861</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N12" t="n">
-        <v>1627.598878270983</v>
+        <v>1701.458871459088</v>
       </c>
       <c r="O12" t="n">
-        <v>2019.798829055134</v>
+        <v>2019.798829055133</v>
       </c>
       <c r="P12" t="n">
-        <v>2321.894748330831</v>
+        <v>2321.89474833083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R12" t="n">
-        <v>2479.666378116425</v>
+        <v>2419.88210921137</v>
       </c>
       <c r="S12" t="n">
-        <v>2355.655232872321</v>
+        <v>2267.08262222411</v>
       </c>
       <c r="T12" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390096</v>
       </c>
       <c r="U12" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988406</v>
       </c>
       <c r="V12" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.50710343674</v>
       </c>
       <c r="W12" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.19123467005</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547844</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974231</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.2348244456221</v>
+        <v>347.2348244456223</v>
       </c>
       <c r="C13" t="n">
-        <v>292.1947796630688</v>
+        <v>292.194779663069</v>
       </c>
       <c r="D13" t="n">
-        <v>253.6988112465979</v>
+        <v>253.6988112465981</v>
       </c>
       <c r="E13" t="n">
-        <v>216.2657217636831</v>
+        <v>216.2657217636834</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3609915452266</v>
+        <v>178.3609915452269</v>
       </c>
       <c r="G13" t="n">
-        <v>124.0171676688431</v>
+        <v>124.0171676688434</v>
       </c>
       <c r="H13" t="n">
         <v>79.22044720388357</v>
       </c>
       <c r="I13" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J13" t="n">
-        <v>103.0270918774859</v>
+        <v>103.0270918774858</v>
       </c>
       <c r="K13" t="n">
         <v>248.9271434752559</v>
@@ -5206,10 +5206,10 @@
         <v>461.8300867286421</v>
       </c>
       <c r="M13" t="n">
-        <v>692.1194567093705</v>
+        <v>692.1194567093704</v>
       </c>
       <c r="N13" t="n">
-        <v>922.8376623120973</v>
+        <v>922.8376623120975</v>
       </c>
       <c r="O13" t="n">
         <v>1133.597172660914</v>
@@ -5230,19 +5230,19 @@
         <v>1130.704212942829</v>
       </c>
       <c r="U13" t="n">
-        <v>958.0898981876954</v>
+        <v>958.0898981876956</v>
       </c>
       <c r="V13" t="n">
-        <v>811.9305185018844</v>
+        <v>811.9305185018845</v>
       </c>
       <c r="W13" t="n">
-        <v>640.3500417750499</v>
+        <v>640.35004177505</v>
       </c>
       <c r="X13" t="n">
-        <v>523.673502426192</v>
+        <v>523.6735024261923</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2142683742355</v>
+        <v>416.2142683742358</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1164.11305233389</v>
+        <v>860.670778570769</v>
       </c>
       <c r="C14" t="n">
-        <v>1164.11305233389</v>
+        <v>593.3129446593427</v>
       </c>
       <c r="D14" t="n">
-        <v>905.8650123168806</v>
+        <v>593.3129446593427</v>
       </c>
       <c r="E14" t="n">
-        <v>625.6552171787537</v>
+        <v>593.3129446593427</v>
       </c>
       <c r="F14" t="n">
-        <v>326.0799512446904</v>
+        <v>293.7376787252795</v>
       </c>
       <c r="G14" t="n">
-        <v>326.0799512446904</v>
+        <v>293.7376787252795</v>
       </c>
       <c r="H14" t="n">
         <v>107.8346015977661</v>
       </c>
       <c r="I14" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J14" t="n">
-        <v>132.1275026206756</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K14" t="n">
-        <v>372.2678746654584</v>
+        <v>474.0281077330436</v>
       </c>
       <c r="L14" t="n">
-        <v>832.4491116035313</v>
+        <v>821.9134808179898</v>
       </c>
       <c r="M14" t="n">
-        <v>1225.688277856619</v>
+        <v>1249.149557107031</v>
       </c>
       <c r="N14" t="n">
-        <v>1604.019636544335</v>
+        <v>1627.480915794747</v>
       </c>
       <c r="O14" t="n">
-        <v>1909.024221017169</v>
+        <v>1932.485500267581</v>
       </c>
       <c r="P14" t="n">
-        <v>2249.476981326349</v>
+        <v>2272.938260576761</v>
       </c>
       <c r="Q14" t="n">
-        <v>2456.205098866013</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R14" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="S14" t="n">
-        <v>2407.013327502546</v>
+        <v>2407.013327502545</v>
       </c>
       <c r="T14" t="n">
-        <v>2297.230305989323</v>
+        <v>2297.230305989322</v>
       </c>
       <c r="U14" t="n">
-        <v>2156.920894459083</v>
+        <v>2156.920894459082</v>
       </c>
       <c r="V14" t="n">
-        <v>1934.517545110791</v>
+        <v>1934.51754511079</v>
       </c>
       <c r="W14" t="n">
         <v>1686.558539724158</v>
       </c>
       <c r="X14" t="n">
-        <v>1443.078983002285</v>
+        <v>1419.104324001417</v>
       </c>
       <c r="Y14" t="n">
-        <v>1164.11305233389</v>
+        <v>1140.138393333022</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161622</v>
       </c>
       <c r="C15" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571169</v>
       </c>
       <c r="D15" t="n">
-        <v>628.3637782955393</v>
+        <v>539.791167647329</v>
       </c>
       <c r="E15" t="n">
-        <v>481.3357683524106</v>
+        <v>392.7631577042002</v>
       </c>
       <c r="F15" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G15" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H15" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I15" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J15" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="K15" t="n">
-        <v>265.478033467519</v>
+        <v>279.0838801225171</v>
       </c>
       <c r="L15" t="n">
-        <v>631.2998786376346</v>
+        <v>644.9057252926327</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.333232147861</v>
+        <v>1116.33323214786</v>
       </c>
       <c r="N15" t="n">
-        <v>1627.598878270983</v>
+        <v>1627.598878270982</v>
       </c>
       <c r="O15" t="n">
-        <v>2019.798829055134</v>
+        <v>2019.798829055133</v>
       </c>
       <c r="P15" t="n">
-        <v>2321.894748330831</v>
+        <v>2321.89474833083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R15" t="n">
-        <v>2419.882109211371</v>
+        <v>2419.88210921137</v>
       </c>
       <c r="S15" t="n">
-        <v>2267.082622224111</v>
+        <v>2267.08262222411</v>
       </c>
       <c r="T15" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390096</v>
       </c>
       <c r="U15" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988406</v>
       </c>
       <c r="V15" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.50710343674</v>
       </c>
       <c r="W15" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.19123467005</v>
       </c>
       <c r="X15" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547844</v>
       </c>
       <c r="Y15" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974231</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.2348244456222</v>
+        <v>347.2348244456224</v>
       </c>
       <c r="C16" t="n">
-        <v>292.1947796630689</v>
+        <v>292.1947796630691</v>
       </c>
       <c r="D16" t="n">
-        <v>253.698811246598</v>
+        <v>253.6988112465983</v>
       </c>
       <c r="E16" t="n">
-        <v>216.2657217636832</v>
+        <v>216.2657217636836</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3609915452267</v>
+        <v>178.3609915452271</v>
       </c>
       <c r="G16" t="n">
-        <v>124.0171676688432</v>
+        <v>124.0171676688435</v>
       </c>
       <c r="H16" t="n">
-        <v>79.22044720388351</v>
+        <v>79.22044720388357</v>
       </c>
       <c r="I16" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J16" t="n">
         <v>103.0270918774858</v>
@@ -5443,43 +5443,43 @@
         <v>461.8300867286418</v>
       </c>
       <c r="M16" t="n">
-        <v>692.11945670937</v>
+        <v>692.1194567093705</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8376623120969</v>
+        <v>922.8376623120976</v>
       </c>
       <c r="O16" t="n">
-        <v>1133.597172660913</v>
+        <v>1133.597172660914</v>
       </c>
       <c r="P16" t="n">
-        <v>1308.861520242178</v>
+        <v>1308.861520242179</v>
       </c>
       <c r="Q16" t="n">
-        <v>1383.386935841785</v>
+        <v>1383.386935841786</v>
       </c>
       <c r="R16" t="n">
-        <v>1348.441079211929</v>
+        <v>1348.44107921193</v>
       </c>
       <c r="S16" t="n">
-        <v>1249.307241371383</v>
+        <v>1249.307241371384</v>
       </c>
       <c r="T16" t="n">
         <v>1130.704212942829</v>
       </c>
       <c r="U16" t="n">
-        <v>958.0898981876951</v>
+        <v>958.0898981876957</v>
       </c>
       <c r="V16" t="n">
-        <v>811.9305185018844</v>
+        <v>811.9305185018846</v>
       </c>
       <c r="W16" t="n">
-        <v>640.35004177505</v>
+        <v>640.3500417750502</v>
       </c>
       <c r="X16" t="n">
-        <v>523.673502426192</v>
+        <v>523.6735024261923</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.2142683742356</v>
+        <v>416.2142683742358</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.912468951886</v>
+        <v>1325.912468951885</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.709846338099</v>
+        <v>1116.709846338098</v>
       </c>
       <c r="D17" t="n">
-        <v>916.6170176187285</v>
+        <v>916.6170176187279</v>
       </c>
       <c r="E17" t="n">
-        <v>694.5624337782411</v>
+        <v>694.5624337782407</v>
       </c>
       <c r="F17" t="n">
-        <v>453.1423791418173</v>
+        <v>453.1423791418169</v>
       </c>
       <c r="G17" t="n">
-        <v>209.7695286494111</v>
+        <v>209.7695286494109</v>
       </c>
       <c r="H17" t="n">
-        <v>49.67939030012666</v>
+        <v>49.67939030012656</v>
       </c>
       <c r="I17" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J17" t="n">
         <v>121.5918718351342</v>
@@ -5525,34 +5525,34 @@
         <v>1102.856783217951</v>
       </c>
       <c r="N17" t="n">
-        <v>1481.188141905667</v>
+        <v>1650.48192835161</v>
       </c>
       <c r="O17" t="n">
-        <v>1907.324239684663</v>
+        <v>2124.780299270387</v>
       </c>
       <c r="P17" t="n">
-        <v>2304.774922586659</v>
+        <v>2385.234124429887</v>
       </c>
       <c r="Q17" t="n">
-        <v>2399.207176273196</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R17" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.168538800185</v>
+        <v>2465.168538800184</v>
       </c>
       <c r="T17" t="n">
-        <v>2413.540728584602</v>
+        <v>2413.540728584601</v>
       </c>
       <c r="U17" t="n">
-        <v>2331.386528352002</v>
+        <v>2331.386528352001</v>
       </c>
       <c r="V17" t="n">
-        <v>2167.138390301349</v>
+        <v>2167.138390301348</v>
       </c>
       <c r="W17" t="n">
-        <v>1977.334596212356</v>
+        <v>1977.334596212355</v>
       </c>
       <c r="X17" t="n">
         <v>1768.035591787255</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161622</v>
       </c>
       <c r="C18" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571169</v>
       </c>
       <c r="D18" t="n">
-        <v>628.3637782955393</v>
+        <v>539.791167647329</v>
       </c>
       <c r="E18" t="n">
-        <v>481.3357683524106</v>
+        <v>392.7631577042002</v>
       </c>
       <c r="F18" t="n">
-        <v>346.6419703022849</v>
+        <v>258.0693596540746</v>
       </c>
       <c r="G18" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H18" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I18" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J18" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="K18" t="n">
-        <v>265.478033467519</v>
+        <v>279.0838801225171</v>
       </c>
       <c r="L18" t="n">
-        <v>631.2998786376346</v>
+        <v>644.9057252926327</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.333232147861</v>
+        <v>1116.33323214786</v>
       </c>
       <c r="N18" t="n">
-        <v>1627.598878270983</v>
+        <v>1627.598878270982</v>
       </c>
       <c r="O18" t="n">
-        <v>2019.798829055134</v>
+        <v>2019.798829055133</v>
       </c>
       <c r="P18" t="n">
-        <v>2321.894748330831</v>
+        <v>2321.89474833083</v>
       </c>
       <c r="Q18" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R18" t="n">
-        <v>2419.882109211371</v>
+        <v>2419.88210921137</v>
       </c>
       <c r="S18" t="n">
-        <v>2355.655232872321</v>
+        <v>2267.08262222411</v>
       </c>
       <c r="T18" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390096</v>
       </c>
       <c r="U18" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988406</v>
       </c>
       <c r="V18" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.50710343674</v>
       </c>
       <c r="W18" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.19123467005</v>
       </c>
       <c r="X18" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547844</v>
       </c>
       <c r="Y18" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974231</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="C19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="D19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="E19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="F19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="G19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="H19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I19" t="n">
-        <v>53.49864670158821</v>
+        <v>53.49864670158765</v>
       </c>
       <c r="J19" t="n">
-        <v>53.49864670158821</v>
+        <v>53.49864670158765</v>
       </c>
       <c r="K19" t="n">
-        <v>87.10283444623163</v>
+        <v>87.10283444623106</v>
       </c>
       <c r="L19" t="n">
-        <v>187.7099138464911</v>
+        <v>187.7099138464906</v>
       </c>
       <c r="M19" t="n">
-        <v>305.7034199740929</v>
+        <v>305.7034199740923</v>
       </c>
       <c r="N19" t="n">
-        <v>424.1257617236932</v>
+        <v>424.1257617236927</v>
       </c>
       <c r="O19" t="n">
-        <v>522.5894082193829</v>
+        <v>522.5894082193823</v>
       </c>
       <c r="P19" t="n">
-        <v>585.5578919475207</v>
+        <v>585.5578919475201</v>
       </c>
       <c r="Q19" t="n">
-        <v>585.5578919475207</v>
+        <v>585.5578919475201</v>
       </c>
       <c r="R19" t="n">
-        <v>585.5578919475207</v>
+        <v>585.5578919475201</v>
       </c>
       <c r="S19" t="n">
-        <v>544.5792654046141</v>
+        <v>544.5792654046136</v>
       </c>
       <c r="T19" t="n">
-        <v>484.1314482736988</v>
+        <v>484.1314482736983</v>
       </c>
       <c r="U19" t="n">
-        <v>369.6723448162045</v>
+        <v>369.6723448162041</v>
       </c>
       <c r="V19" t="n">
-        <v>281.668176428033</v>
+        <v>281.6681764280327</v>
       </c>
       <c r="W19" t="n">
-        <v>168.242910998838</v>
+        <v>168.2429109988377</v>
       </c>
       <c r="X19" t="n">
-        <v>109.7215829476196</v>
+        <v>109.7215829476194</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.41756019330249</v>
+        <v>60.41756019330239</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1325.912468951887</v>
+        <v>1325.912468951885</v>
       </c>
       <c r="C20" t="n">
-        <v>1116.7098463381</v>
+        <v>1116.709846338098</v>
       </c>
       <c r="D20" t="n">
-        <v>916.6170176187293</v>
+        <v>916.6170176187284</v>
       </c>
       <c r="E20" t="n">
-        <v>694.5624337782421</v>
+        <v>694.5624337782411</v>
       </c>
       <c r="F20" t="n">
-        <v>453.1423791418183</v>
+        <v>453.1423791418174</v>
       </c>
       <c r="G20" t="n">
-        <v>209.7695286494122</v>
+        <v>209.7695286494113</v>
       </c>
       <c r="H20" t="n">
-        <v>49.67939030012749</v>
+        <v>49.67939030012656</v>
       </c>
       <c r="I20" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J20" t="n">
         <v>290.8856582810773</v>
@@ -5762,40 +5762,40 @@
         <v>1272.150569663894</v>
       </c>
       <c r="N20" t="n">
-        <v>1650.48192835161</v>
+        <v>1819.775714797553</v>
       </c>
       <c r="O20" t="n">
-        <v>1955.486512824444</v>
+        <v>2124.780299270387</v>
       </c>
       <c r="P20" t="n">
-        <v>2183.643409280497</v>
+        <v>2385.234124429887</v>
       </c>
       <c r="Q20" t="n">
-        <v>2399.207176273196</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R20" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.168538800185</v>
+        <v>2465.168538800184</v>
       </c>
       <c r="T20" t="n">
-        <v>2413.540728584602</v>
+        <v>2413.540728584601</v>
       </c>
       <c r="U20" t="n">
-        <v>2331.386528352002</v>
+        <v>2331.386528352001</v>
       </c>
       <c r="V20" t="n">
-        <v>2167.138390301349</v>
+        <v>2167.138390301348</v>
       </c>
       <c r="W20" t="n">
         <v>1977.334596212356</v>
       </c>
       <c r="X20" t="n">
-        <v>1768.035591787256</v>
+        <v>1768.035591787255</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.2248724165</v>
+        <v>1547.224872416498</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>840.3334774161631</v>
+        <v>840.3334774161622</v>
       </c>
       <c r="C21" t="n">
-        <v>678.6298046571178</v>
+        <v>678.6298046571169</v>
       </c>
       <c r="D21" t="n">
-        <v>539.7911676473299</v>
+        <v>539.791167647329</v>
       </c>
       <c r="E21" t="n">
-        <v>392.7631577042011</v>
+        <v>392.7631577042002</v>
       </c>
       <c r="F21" t="n">
-        <v>258.0693596540755</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G21" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H21" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I21" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J21" t="n">
-        <v>109.8474740954346</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="K21" t="n">
-        <v>339.3380266556233</v>
+        <v>279.0838801225171</v>
       </c>
       <c r="L21" t="n">
-        <v>631.2998786376346</v>
+        <v>631.2998786376337</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.333232147861</v>
+        <v>1116.33323214786</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.598878270983</v>
+        <v>1627.598878270982</v>
       </c>
       <c r="O21" t="n">
-        <v>2019.798829055134</v>
+        <v>2019.798829055133</v>
       </c>
       <c r="P21" t="n">
-        <v>2321.894748330831</v>
+        <v>2321.89474833083</v>
       </c>
       <c r="Q21" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R21" t="n">
-        <v>2419.882109211371</v>
+        <v>2419.88210921137</v>
       </c>
       <c r="S21" t="n">
-        <v>2267.082622224111</v>
+        <v>2267.08262222411</v>
       </c>
       <c r="T21" t="n">
-        <v>2078.397518390097</v>
+        <v>2078.397518390096</v>
       </c>
       <c r="U21" t="n">
-        <v>1859.902725988407</v>
+        <v>1859.902725988406</v>
       </c>
       <c r="V21" t="n">
-        <v>1631.507103436741</v>
+        <v>1631.50710343674</v>
       </c>
       <c r="W21" t="n">
-        <v>1390.191234670051</v>
+        <v>1390.19123467005</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.274246547845</v>
+        <v>1192.274246547844</v>
       </c>
       <c r="Y21" t="n">
-        <v>999.752920197424</v>
+        <v>999.7529201974231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="C22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="D22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="E22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="F22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="G22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="H22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="K22" t="n">
-        <v>83.19751530697192</v>
+        <v>83.19751530697189</v>
       </c>
       <c r="L22" t="n">
         <v>183.8045947072314</v>
       </c>
       <c r="M22" t="n">
-        <v>301.7981008348332</v>
+        <v>301.7981008348331</v>
       </c>
       <c r="N22" t="n">
-        <v>420.2204425844336</v>
+        <v>424.1257617236927</v>
       </c>
       <c r="O22" t="n">
-        <v>518.6840890801233</v>
+        <v>522.5894082193823</v>
       </c>
       <c r="P22" t="n">
-        <v>581.6525728082611</v>
+        <v>585.5578919475201</v>
       </c>
       <c r="Q22" t="n">
-        <v>581.6525728082611</v>
+        <v>585.5578919475201</v>
       </c>
       <c r="R22" t="n">
         <v>585.5578919475201</v>
@@ -5953,7 +5953,7 @@
         <v>109.7215829476194</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.41756019330241</v>
+        <v>60.41756019330239</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1116.709846338099</v>
       </c>
       <c r="D23" t="n">
-        <v>916.6170176187284</v>
+        <v>916.6170176187285</v>
       </c>
       <c r="E23" t="n">
-        <v>694.5624337782411</v>
+        <v>694.5624337782413</v>
       </c>
       <c r="F23" t="n">
-        <v>453.1423791418174</v>
+        <v>453.1423791418175</v>
       </c>
       <c r="G23" t="n">
-        <v>209.7695286494113</v>
+        <v>209.7695286494114</v>
       </c>
       <c r="H23" t="n">
-        <v>49.67939030012657</v>
+        <v>49.67939030012656</v>
       </c>
       <c r="I23" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J23" t="n">
         <v>121.5918718351342</v>
@@ -5993,37 +5993,37 @@
         <v>361.732243879917</v>
       </c>
       <c r="L23" t="n">
-        <v>709.6176169648631</v>
+        <v>830.7491302710243</v>
       </c>
       <c r="M23" t="n">
-        <v>1102.856783217951</v>
+        <v>1223.988296524112</v>
       </c>
       <c r="N23" t="n">
-        <v>1602.319655211829</v>
+        <v>1771.613441657771</v>
       </c>
       <c r="O23" t="n">
-        <v>1907.324239684663</v>
+        <v>2076.618026130605</v>
       </c>
       <c r="P23" t="n">
-        <v>2135.481136140716</v>
+        <v>2304.774922586658</v>
       </c>
       <c r="Q23" t="n">
-        <v>2399.207176273196</v>
+        <v>2399.207176273195</v>
       </c>
       <c r="R23" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.168538800185</v>
+        <v>2465.168538800184</v>
       </c>
       <c r="T23" t="n">
-        <v>2413.540728584602</v>
+        <v>2413.540728584601</v>
       </c>
       <c r="U23" t="n">
-        <v>2331.386528352002</v>
+        <v>2331.386528352001</v>
       </c>
       <c r="V23" t="n">
-        <v>2167.138390301349</v>
+        <v>2167.138390301348</v>
       </c>
       <c r="W23" t="n">
         <v>1977.334596212356</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>840.3334774161631</v>
+        <v>840.3334774161622</v>
       </c>
       <c r="C24" t="n">
-        <v>678.6298046571178</v>
+        <v>678.6298046571169</v>
       </c>
       <c r="D24" t="n">
-        <v>539.7911676473299</v>
+        <v>539.791167647329</v>
       </c>
       <c r="E24" t="n">
-        <v>392.7631577042011</v>
+        <v>392.7631577042002</v>
       </c>
       <c r="F24" t="n">
-        <v>258.0693596540755</v>
+        <v>258.0693596540746</v>
       </c>
       <c r="G24" t="n">
-        <v>129.34085967736</v>
+        <v>217.9134703255694</v>
       </c>
       <c r="H24" t="n">
-        <v>49.5933275623285</v>
+        <v>117.9756128722675</v>
       </c>
       <c r="I24" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J24" t="n">
         <v>109.8474740954346</v>
@@ -6072,46 +6072,46 @@
         <v>339.3380266556233</v>
       </c>
       <c r="L24" t="n">
-        <v>705.1598718257389</v>
+        <v>631.2998786376337</v>
       </c>
       <c r="M24" t="n">
-        <v>1190.193225335966</v>
+        <v>1116.33323214786</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.458871459088</v>
+        <v>1627.598878270982</v>
       </c>
       <c r="O24" t="n">
-        <v>2093.658822243239</v>
+        <v>2019.798829055133</v>
       </c>
       <c r="P24" t="n">
-        <v>2395.754741518936</v>
+        <v>2321.89474833083</v>
       </c>
       <c r="Q24" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R24" t="n">
-        <v>2419.882109211371</v>
+        <v>2419.88210921137</v>
       </c>
       <c r="S24" t="n">
-        <v>2267.082622224111</v>
+        <v>2267.08262222411</v>
       </c>
       <c r="T24" t="n">
-        <v>2078.397518390097</v>
+        <v>2078.397518390096</v>
       </c>
       <c r="U24" t="n">
-        <v>1859.902725988407</v>
+        <v>1859.902725988406</v>
       </c>
       <c r="V24" t="n">
-        <v>1631.507103436741</v>
+        <v>1631.50710343674</v>
       </c>
       <c r="W24" t="n">
-        <v>1390.191234670051</v>
+        <v>1390.19123467005</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.274246547845</v>
+        <v>1192.274246547844</v>
       </c>
       <c r="Y24" t="n">
-        <v>999.752920197424</v>
+        <v>999.7529201974231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="C25" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="D25" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="E25" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="F25" t="n">
-        <v>53.49864670158765</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="G25" t="n">
-        <v>53.49864670158765</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="H25" t="n">
-        <v>53.49864670158765</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="I25" t="n">
-        <v>53.49864670158765</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="J25" t="n">
-        <v>53.49864670158765</v>
+        <v>49.59332756232849</v>
       </c>
       <c r="K25" t="n">
-        <v>87.10283444623106</v>
+        <v>83.19751530697189</v>
       </c>
       <c r="L25" t="n">
-        <v>187.7099138464906</v>
+        <v>183.8045947072314</v>
       </c>
       <c r="M25" t="n">
-        <v>305.7034199740923</v>
+        <v>301.7981008348331</v>
       </c>
       <c r="N25" t="n">
-        <v>424.1257617236927</v>
+        <v>420.2204425844335</v>
       </c>
       <c r="O25" t="n">
-        <v>522.5894082193823</v>
+        <v>518.6840890801232</v>
       </c>
       <c r="P25" t="n">
-        <v>585.5578919475201</v>
+        <v>581.652572808261</v>
       </c>
       <c r="Q25" t="n">
         <v>585.5578919475201</v>
@@ -6190,7 +6190,7 @@
         <v>109.7215829476194</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.41756019330241</v>
+        <v>60.41756019330239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1442.714634989808</v>
+        <v>1427.753382727406</v>
       </c>
       <c r="C26" t="n">
-        <v>1175.356801078382</v>
+        <v>1160.39554881598</v>
       </c>
       <c r="D26" t="n">
-        <v>917.1087610613721</v>
+        <v>1160.39554881598</v>
       </c>
       <c r="E26" t="n">
-        <v>636.8989659232453</v>
+        <v>880.1857536778534</v>
       </c>
       <c r="F26" t="n">
-        <v>337.323699989182</v>
+        <v>580.6104877437901</v>
       </c>
       <c r="G26" t="n">
-        <v>337.323699989182</v>
+        <v>279.0824259537445</v>
       </c>
       <c r="H26" t="n">
-        <v>119.0783503422577</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="I26" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J26" t="n">
-        <v>245.1314844327524</v>
+        <v>245.1314844327526</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5677203306618</v>
+        <v>597.5677203306619</v>
       </c>
       <c r="L26" t="n">
         <v>1057.748957268735</v>
@@ -6236,10 +6236,10 @@
         <v>1563.283987374949</v>
       </c>
       <c r="N26" t="n">
-        <v>2053.911209915792</v>
+        <v>2053.911209915791</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.211658241753</v>
+        <v>2471.211658241752</v>
       </c>
       <c r="P26" t="n">
         <v>2811.664418550932</v>
@@ -6254,22 +6254,22 @@
         <v>2969.200764727128</v>
       </c>
       <c r="T26" t="n">
-        <v>2879.274162408361</v>
+        <v>2859.417743213906</v>
       </c>
       <c r="U26" t="n">
-        <v>2738.964750878122</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V26" t="n">
-        <v>2516.56140152983</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="W26" t="n">
-        <v>2268.602396143197</v>
+        <v>2248.745976948741</v>
       </c>
       <c r="X26" t="n">
-        <v>2001.148180420457</v>
+        <v>1981.291761226001</v>
       </c>
       <c r="Y26" t="n">
-        <v>1722.182249752061</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>925.4372193487595</v>
+        <v>940.1498368088643</v>
       </c>
       <c r="C27" t="n">
-        <v>763.7335465897143</v>
+        <v>778.446164049819</v>
       </c>
       <c r="D27" t="n">
-        <v>624.8949095799263</v>
+        <v>639.6075270400311</v>
       </c>
       <c r="E27" t="n">
-        <v>477.8668996367975</v>
+        <v>492.5795170969022</v>
       </c>
       <c r="F27" t="n">
-        <v>343.1731015866719</v>
+        <v>357.8857190467766</v>
       </c>
       <c r="G27" t="n">
-        <v>214.4446016099565</v>
+        <v>229.1572190700611</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5067441566545</v>
+        <v>129.2193616167592</v>
       </c>
       <c r="I27" t="n">
         <v>60.83707630682017</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4785731901134</v>
+        <v>358.4785731901142</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4385284075601</v>
+        <v>303.438528407561</v>
       </c>
       <c r="D28" t="n">
-        <v>264.9425599910892</v>
+        <v>264.94255999109</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5094705081744</v>
+        <v>227.5094705081753</v>
       </c>
       <c r="F28" t="n">
-        <v>189.604740289718</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2609164133344</v>
+        <v>135.2609164133351</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46419594837471</v>
+        <v>90.46419594837526</v>
       </c>
       <c r="I28" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2708406219772</v>
+        <v>114.2708406219774</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1708922197468</v>
+        <v>260.1708922197474</v>
       </c>
       <c r="L28" t="n">
-        <v>473.073835473133</v>
+        <v>473.0738354731336</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3632054538612</v>
+        <v>703.3632054538621</v>
       </c>
       <c r="N28" t="n">
-        <v>934.081411056588</v>
+        <v>934.0814110565891</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.840921405404</v>
+        <v>1144.840921405405</v>
       </c>
       <c r="P28" t="n">
-        <v>1320.105268986669</v>
+        <v>1320.10526898667</v>
       </c>
       <c r="Q28" t="n">
-        <v>1394.630684586276</v>
+        <v>1394.630684586277</v>
       </c>
       <c r="R28" t="n">
-        <v>1359.68482795642</v>
+        <v>1359.684827956422</v>
       </c>
       <c r="S28" t="n">
-        <v>1260.550990115874</v>
+        <v>1260.550990115875</v>
       </c>
       <c r="T28" t="n">
-        <v>1141.94796168732</v>
+        <v>1141.947961687321</v>
       </c>
       <c r="U28" t="n">
-        <v>969.3336469321868</v>
+        <v>969.3336469321871</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1742672463757</v>
+        <v>823.1742672463763</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195412</v>
+        <v>651.5937905195419</v>
       </c>
       <c r="X28" t="n">
-        <v>534.9172511706834</v>
+        <v>534.917251170684</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.4580171187268</v>
+        <v>427.4580171187276</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1670.817221181986</v>
+        <v>1422.858215795353</v>
       </c>
       <c r="C29" t="n">
-        <v>1403.45938727056</v>
+        <v>1155.500381883927</v>
       </c>
       <c r="D29" t="n">
-        <v>1145.21134725355</v>
+        <v>897.2523418669168</v>
       </c>
       <c r="E29" t="n">
-        <v>938.4270277132911</v>
+        <v>617.0425467287901</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8517617792278</v>
+        <v>362.3651380968658</v>
       </c>
       <c r="G29" t="n">
-        <v>337.3236999891821</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422577</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="I29" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J29" t="n">
-        <v>245.1314844327526</v>
+        <v>245.1314844327525</v>
       </c>
       <c r="K29" t="n">
-        <v>597.5677203306619</v>
+        <v>597.5677203306618</v>
       </c>
       <c r="L29" t="n">
         <v>1057.748957268735</v>
@@ -6485,28 +6485,28 @@
         <v>3018.392536090596</v>
       </c>
       <c r="R29" t="n">
-        <v>3041.853815341009</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S29" t="n">
-        <v>2969.200764727129</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T29" t="n">
         <v>2859.417743213906</v>
       </c>
       <c r="U29" t="n">
-        <v>2719.108331683667</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V29" t="n">
-        <v>2496.704982335375</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="W29" t="n">
-        <v>2496.704982335375</v>
+        <v>2248.745976948741</v>
       </c>
       <c r="X29" t="n">
-        <v>2229.250766612634</v>
+        <v>1981.291761226001</v>
       </c>
       <c r="Y29" t="n">
-        <v>1950.284835944239</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6534,7 @@
         <v>214.4446016099565</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5067441566545</v>
+        <v>129.2193616167592</v>
       </c>
       <c r="I30" t="n">
         <v>60.83707630682017</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.478573190114</v>
+        <v>358.4785731901141</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4385284075608</v>
+        <v>303.4385284075609</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9425599910899</v>
+        <v>264.94255999109</v>
       </c>
       <c r="E31" t="n">
         <v>227.5094705081752</v>
       </c>
       <c r="F31" t="n">
-        <v>189.6047402897186</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G31" t="n">
-        <v>135.260916413335</v>
+        <v>135.2609164133351</v>
       </c>
       <c r="H31" t="n">
         <v>90.46419594837525</v>
@@ -6619,19 +6619,19 @@
         <v>60.83707630682017</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219777</v>
+        <v>114.2708406219776</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197477</v>
+        <v>260.1708922197479</v>
       </c>
       <c r="L31" t="n">
-        <v>473.073835473134</v>
+        <v>473.0738354731342</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538623</v>
+        <v>703.3632054538625</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565893</v>
+        <v>934.0814110565896</v>
       </c>
       <c r="O31" t="n">
         <v>1144.840921405406</v>
@@ -6652,19 +6652,19 @@
         <v>1141.947961687321</v>
       </c>
       <c r="U31" t="n">
-        <v>969.3336469321872</v>
+        <v>969.3336469321874</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1742672463762</v>
+        <v>823.1742672463764</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5937905195417</v>
+        <v>651.5937905195419</v>
       </c>
       <c r="X31" t="n">
-        <v>534.9172511706839</v>
+        <v>534.917251170684</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4580171187274</v>
+        <v>427.4580171187275</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1542.536318111711</v>
+        <v>1542.53631811171</v>
       </c>
       <c r="C32" t="n">
-        <v>1303.684062512362</v>
+        <v>1303.68406251236</v>
       </c>
       <c r="D32" t="n">
-        <v>1073.941600807429</v>
+        <v>1073.941600807428</v>
       </c>
       <c r="E32" t="n">
-        <v>822.2373839813787</v>
+        <v>822.2373839813779</v>
       </c>
       <c r="F32" t="n">
-        <v>551.1676963593924</v>
+        <v>551.1676963593916</v>
       </c>
       <c r="G32" t="n">
-        <v>278.1452128814237</v>
+        <v>278.145212881423</v>
       </c>
       <c r="H32" t="n">
-        <v>88.40544154657566</v>
+        <v>88.40544154657559</v>
       </c>
       <c r="I32" t="n">
-        <v>58.66974582321502</v>
+        <v>58.669745823215</v>
       </c>
       <c r="J32" t="n">
         <v>270.9024712528139</v>
@@ -6704,46 +6704,46 @@
         <v>651.2770244543899</v>
       </c>
       <c r="L32" t="n">
-        <v>999.1623975393361</v>
+        <v>1139.396578696129</v>
       </c>
       <c r="M32" t="n">
-        <v>1455.460057833152</v>
+        <v>1532.635744949217</v>
       </c>
       <c r="N32" t="n">
-        <v>1833.791416520868</v>
+        <v>2051.201284793726</v>
       </c>
       <c r="O32" t="n">
-        <v>2279.030182150495</v>
+        <v>2496.440050423354</v>
       </c>
       <c r="P32" t="n">
-        <v>2647.421259763342</v>
+        <v>2724.596946879407</v>
       </c>
       <c r="Q32" t="n">
-        <v>2882.087694606672</v>
+        <v>2882.087694606671</v>
       </c>
       <c r="R32" t="n">
-        <v>2933.487291160751</v>
+        <v>2933.48729116075</v>
       </c>
       <c r="S32" t="n">
-        <v>2889.339818858949</v>
+        <v>2889.339818858948</v>
       </c>
       <c r="T32" t="n">
-        <v>2808.062375657803</v>
+        <v>2808.062375657802</v>
       </c>
       <c r="U32" t="n">
-        <v>2696.25854243964</v>
+        <v>2696.258542439638</v>
       </c>
       <c r="V32" t="n">
-        <v>2502.360771403425</v>
+        <v>2502.360771403423</v>
       </c>
       <c r="W32" t="n">
-        <v>2282.907344328869</v>
+        <v>2282.907344328867</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.958706918206</v>
+        <v>2043.958706918204</v>
       </c>
       <c r="Y32" t="n">
-        <v>1793.498354561887</v>
+        <v>1793.498354561885</v>
       </c>
     </row>
     <row r="33">
@@ -6771,13 +6771,13 @@
         <v>212.2772711263516</v>
       </c>
       <c r="H33" t="n">
-        <v>112.3394136730496</v>
+        <v>127.052031133154</v>
       </c>
       <c r="I33" t="n">
-        <v>58.66974582321502</v>
+        <v>58.669745823215</v>
       </c>
       <c r="J33" t="n">
-        <v>118.9238923563212</v>
+        <v>118.9238923563211</v>
       </c>
       <c r="K33" t="n">
         <v>348.4144449165098</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.7721945219702</v>
+        <v>156.7721945219698</v>
       </c>
       <c r="C34" t="n">
-        <v>130.2377280514939</v>
+        <v>130.2377280514935</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2473379470999</v>
+        <v>120.2473379470996</v>
       </c>
       <c r="E34" t="n">
-        <v>111.3198267762621</v>
+        <v>111.3198267762619</v>
       </c>
       <c r="F34" t="n">
-        <v>101.9206748698826</v>
+        <v>101.9206748698824</v>
       </c>
       <c r="G34" t="n">
-        <v>76.08242930557596</v>
+        <v>76.08242930557583</v>
       </c>
       <c r="H34" t="n">
-        <v>59.79128715269314</v>
+        <v>59.79128715269307</v>
       </c>
       <c r="I34" t="n">
-        <v>58.66974582321502</v>
+        <v>58.669745823215</v>
       </c>
       <c r="J34" t="n">
         <v>140.041827442039</v>
       </c>
       <c r="K34" t="n">
-        <v>313.8801963434756</v>
+        <v>297.6848624513574</v>
       </c>
       <c r="L34" t="n">
-        <v>414.4872757437352</v>
+        <v>398.291941851617</v>
       </c>
       <c r="M34" t="n">
-        <v>532.4807818713368</v>
+        <v>656.519629136012</v>
       </c>
       <c r="N34" t="n">
-        <v>650.9031236209372</v>
+        <v>774.9419708856124</v>
       </c>
       <c r="O34" t="n">
-        <v>749.3667701166269</v>
+        <v>873.405617381302</v>
       </c>
       <c r="P34" t="n">
-        <v>936.3741011094409</v>
+        <v>936.3741011094398</v>
       </c>
       <c r="Q34" t="n">
-        <v>936.3741011094409</v>
+        <v>936.3741011094398</v>
       </c>
       <c r="R34" t="n">
-        <v>929.9338227916625</v>
+        <v>929.9338227916614</v>
       </c>
       <c r="S34" t="n">
-        <v>859.3055632631933</v>
+        <v>859.3055632631924</v>
       </c>
       <c r="T34" t="n">
-        <v>769.2081131467155</v>
+        <v>769.2081131467147</v>
       </c>
       <c r="U34" t="n">
-        <v>625.0993767036588</v>
+        <v>625.099376703658</v>
       </c>
       <c r="V34" t="n">
-        <v>507.4455753299247</v>
+        <v>507.4455753299241</v>
       </c>
       <c r="W34" t="n">
-        <v>364.3706769151672</v>
+        <v>364.3706769151666</v>
       </c>
       <c r="X34" t="n">
-        <v>276.1997158783863</v>
+        <v>276.1997158783857</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.2460601385067</v>
+        <v>197.2460601385062</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
         <v>527.7073651707066</v>
       </c>
       <c r="L35" t="n">
-        <v>875.5927382556529</v>
+        <v>991.4016840570267</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1549.108624801147</v>
       </c>
       <c r="N35" t="n">
-        <v>1811.631037687489</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O35" t="n">
-        <v>2116.635622160323</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P35" t="n">
-        <v>2344.792518616376</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,22 +7038,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
         <v>1267.641586535707</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670347</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>548.4887199865494</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>163.2749745479474</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K38" t="n">
-        <v>403.4153465927301</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>751.3007196776764</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
-        <v>1144.539885930764</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N38" t="n">
-        <v>1522.87124461848</v>
+        <v>1811.631037687489</v>
       </c>
       <c r="O38" t="n">
-        <v>1827.875829091314</v>
+        <v>2116.635622160323</v>
       </c>
       <c r="P38" t="n">
-        <v>2220.500500038399</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7217,7 +7217,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>333.4366996419374</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7081996652219</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H39" t="n">
-        <v>104.77034221192</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I39" t="n">
         <v>51.10067436208574</v>
@@ -7275,22 +7275,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S39" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X39" t="n">
         <v>1267.641586535707</v>
@@ -7327,31 +7327,31 @@
         <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>74.23504503930334</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J40" t="n">
-        <v>74.23504503930334</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K40" t="n">
-        <v>107.8392327839468</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L40" t="n">
-        <v>208.4463121842062</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M40" t="n">
-        <v>326.439818311808</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N40" t="n">
-        <v>444.8621600614084</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O40" t="n">
-        <v>543.3258065570981</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P40" t="n">
-        <v>606.2942902852359</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q40" t="n">
-        <v>611.4572037146872</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R40" t="n">
         <v>629.3786802696717</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1402.683981160805</v>
+        <v>1315.263619900708</v>
       </c>
       <c r="C41" t="n">
-        <v>1182.729334917138</v>
+        <v>1095.308973657041</v>
       </c>
       <c r="D41" t="n">
-        <v>971.8844825678869</v>
+        <v>884.4641213077903</v>
       </c>
       <c r="E41" t="n">
-        <v>739.0778750975195</v>
+        <v>728.2397887298405</v>
       </c>
       <c r="F41" t="n">
-        <v>486.9057968312155</v>
+        <v>476.0677104635367</v>
       </c>
       <c r="G41" t="n">
-        <v>232.7809227089292</v>
+        <v>221.9428363412506</v>
       </c>
       <c r="H41" t="n">
-        <v>61.93876072976407</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208574</v>
@@ -7412,25 +7412,25 @@
         <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>420.5514858069345</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>927.1925869781783</v>
+        <v>869.8806918509181</v>
       </c>
       <c r="M41" t="n">
-        <v>1479.187481317564</v>
+        <v>1390.352896714849</v>
       </c>
       <c r="N41" t="n">
-        <v>1857.518840005279</v>
+        <v>1927.439983488863</v>
       </c>
       <c r="O41" t="n">
-        <v>2162.523424478113</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P41" t="n">
-        <v>2390.680320934167</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q41" t="n">
-        <v>2485.112574620704</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7442,19 +7442,19 @@
         <v>2467.404021312704</v>
       </c>
       <c r="U41" t="n">
-        <v>2374.497797450223</v>
+        <v>2374.497797450224</v>
       </c>
       <c r="V41" t="n">
-        <v>2286.917997029789</v>
+        <v>2199.497635769691</v>
       </c>
       <c r="W41" t="n">
-        <v>2086.362179310916</v>
+        <v>1998.941818050818</v>
       </c>
       <c r="X41" t="n">
-        <v>1866.311151255935</v>
+        <v>1778.890789995837</v>
       </c>
       <c r="Y41" t="n">
-        <v>1634.748408255299</v>
+        <v>1547.328046995201</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>915.7008174040254</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>753.9971446449802</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>615.1585076351922</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>468.1304976920634</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4366996419378</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>204.7081996652224</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H42" t="n">
-        <v>104.7703422119204</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I42" t="n">
         <v>51.10067436208574</v>
@@ -7494,7 +7494,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,22 +7512,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2495.249449199233</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2153.764858377959</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1935.270065976269</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1706.874443424603</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1465.558574657913</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
         <v>1267.641586535707</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.67816768550411</v>
+        <v>65.67816768550365</v>
       </c>
       <c r="C43" t="n">
-        <v>58.04131057071007</v>
+        <v>58.04131057070984</v>
       </c>
       <c r="D43" t="n">
-        <v>58.04131057071007</v>
+        <v>58.04131057070984</v>
       </c>
       <c r="E43" t="n">
-        <v>58.04131057071007</v>
+        <v>58.04131057070984</v>
       </c>
       <c r="F43" t="n">
-        <v>58.04131057071007</v>
+        <v>58.04131057070984</v>
       </c>
       <c r="G43" t="n">
         <v>51.10067436208574</v>
@@ -7567,52 +7567,52 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>143.3902457135558</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>176.9944334581992</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>277.6015128584588</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>395.5950189860605</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>514.0173607356609</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>612.4810072313505</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>675.4494909594883</v>
+        <v>687.6589211097356</v>
       </c>
       <c r="Q43" t="n">
-        <v>675.4494909594883</v>
+        <v>687.6589211097356</v>
       </c>
       <c r="R43" t="n">
-        <v>687.6589211097379</v>
+        <v>687.6589211097356</v>
       </c>
       <c r="S43" t="n">
-        <v>635.9282709369511</v>
+        <v>635.928270936949</v>
       </c>
       <c r="T43" t="n">
-        <v>564.7284301761556</v>
+        <v>564.7284301761538</v>
       </c>
       <c r="U43" t="n">
-        <v>439.5173030887811</v>
+        <v>439.5173030887795</v>
       </c>
       <c r="V43" t="n">
-        <v>340.7611110707293</v>
+        <v>340.761111070728</v>
       </c>
       <c r="W43" t="n">
-        <v>216.5838220116541</v>
+        <v>216.583822011653</v>
       </c>
       <c r="X43" t="n">
-        <v>147.3104703305555</v>
+        <v>147.3104703305546</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.25442394635827</v>
+        <v>87.25442394635758</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1402.683981160805</v>
+        <v>1315.263619900708</v>
       </c>
       <c r="C44" t="n">
-        <v>1182.729334917138</v>
+        <v>1095.30897365704</v>
       </c>
       <c r="D44" t="n">
-        <v>971.8844825678871</v>
+        <v>884.46412130779</v>
       </c>
       <c r="E44" t="n">
-        <v>739.0778750975196</v>
+        <v>651.6575138374228</v>
       </c>
       <c r="F44" t="n">
-        <v>486.9057968312155</v>
+        <v>399.4854355711191</v>
       </c>
       <c r="G44" t="n">
-        <v>232.7809227089292</v>
+        <v>232.7809227089287</v>
       </c>
       <c r="H44" t="n">
-        <v>61.93876072976409</v>
+        <v>61.93876072976386</v>
       </c>
       <c r="I44" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>281.8549467211891</v>
       </c>
       <c r="K44" t="n">
-        <v>363.2395906796742</v>
+        <v>521.9953187659719</v>
       </c>
       <c r="L44" t="n">
-        <v>711.1249637646204</v>
+        <v>869.8806918509181</v>
       </c>
       <c r="M44" t="n">
-        <v>1104.364130017708</v>
+        <v>1421.875586190304</v>
       </c>
       <c r="N44" t="n">
-        <v>1482.695488705424</v>
+        <v>1800.206944878019</v>
       </c>
       <c r="O44" t="n">
-        <v>1845.011968305518</v>
+        <v>2162.523424478113</v>
       </c>
       <c r="P44" t="n">
-        <v>2231.924592847869</v>
+        <v>2390.680320934167</v>
       </c>
       <c r="Q44" t="n">
         <v>2485.112574620704</v>
@@ -7673,25 +7673,25 @@
         <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
-        <v>2529.783855158166</v>
+        <v>2529.783855158167</v>
       </c>
       <c r="T44" t="n">
         <v>2467.404021312704</v>
       </c>
       <c r="U44" t="n">
-        <v>2374.497797450223</v>
+        <v>2374.497797450224</v>
       </c>
       <c r="V44" t="n">
-        <v>2199.49763576969</v>
+        <v>2199.497635769691</v>
       </c>
       <c r="W44" t="n">
-        <v>1998.941818050817</v>
+        <v>1998.941818050818</v>
       </c>
       <c r="X44" t="n">
-        <v>1778.890789995836</v>
+        <v>1778.890789995837</v>
       </c>
       <c r="Y44" t="n">
-        <v>1547.328046995199</v>
+        <v>1547.328046995201</v>
       </c>
     </row>
     <row r="45">
@@ -7719,7 +7719,7 @@
         <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>104.7703422119204</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208573</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.67816768550415</v>
+        <v>58.73753147687957</v>
       </c>
       <c r="C46" t="n">
-        <v>58.04131057071008</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D46" t="n">
-        <v>58.04131057071008</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E46" t="n">
-        <v>58.04131057071008</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F46" t="n">
-        <v>58.04131057071008</v>
+        <v>58.04131057070985</v>
       </c>
       <c r="G46" t="n">
         <v>51.10067436208573</v>
@@ -7810,46 +7810,46 @@
         <v>84.70486210672914</v>
       </c>
       <c r="L46" t="n">
-        <v>289.8109430087084</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>407.8044491363102</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>526.2267908859105</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>624.6904373816002</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P46" t="n">
-        <v>687.658921109738</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q46" t="n">
-        <v>687.658921109738</v>
+        <v>680.7182849011116</v>
       </c>
       <c r="R46" t="n">
-        <v>687.658921109738</v>
+        <v>680.7182849011116</v>
       </c>
       <c r="S46" t="n">
-        <v>635.9282709369512</v>
+        <v>628.987634728325</v>
       </c>
       <c r="T46" t="n">
-        <v>564.7284301761557</v>
+        <v>557.7877939675298</v>
       </c>
       <c r="U46" t="n">
-        <v>439.5173030887813</v>
+        <v>432.5766668801555</v>
       </c>
       <c r="V46" t="n">
-        <v>340.7611110707295</v>
+        <v>333.820474862104</v>
       </c>
       <c r="W46" t="n">
-        <v>216.5838220116542</v>
+        <v>209.643185803029</v>
       </c>
       <c r="X46" t="n">
-        <v>147.3104703305556</v>
+        <v>140.3698341219306</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.25442394635834</v>
+        <v>80.31378773773353</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>314.1171235176121</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -7988,7 +7988,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
-        <v>568.5510017355793</v>
+        <v>461.2790889106768</v>
       </c>
       <c r="O2" t="n">
         <v>495.0402356415689</v>
@@ -8055,7 +8055,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
@@ -8064,16 +8064,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>604.9267112876341</v>
+        <v>556.5689907174617</v>
       </c>
       <c r="O3" t="n">
-        <v>339.7407816598563</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>207.9398017336798</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
         <v>421.3890363425141</v>
@@ -8228,13 +8228,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>495.0402356415689</v>
+        <v>460.4941251124297</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,19 +8292,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>123.8395152789256</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>433.7347283243248</v>
       </c>
       <c r="M6" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>604.9267112876341</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8529,19 +8529,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>448.8511326829348</v>
       </c>
       <c r="N9" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>330.0615286668591</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8781,7 +8781,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>437.4149613343891</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -9006,13 +9006,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>330.0615286668591</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>605.4165828749999</v>
+        <v>591.673303425506</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9243,13 +9243,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>330.0615286668591</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>591.673303425506</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9477,13 +9477,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>407.486395169139</v>
+        <v>468.3491694450029</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9720,7 +9720,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>407.4863951691381</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>198.4944203312452</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -10680,7 +10680,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319179</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10917,7 +10917,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319179</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>273.1004740566038</v>
@@ -11142,7 +11142,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>482.092448894497</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>24.23157966377852</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>121.27321796774</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>32.01884979421681</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>23.7349124108586</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>4.846215262733062</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>19.65785500251089</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24686,19 +24686,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>72.69122084188949</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>44.44887872911768</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>75.81645214349327</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.72970550400132</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>86.54615764749809</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>86.54615764749848</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>86.54615764749488</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>605649.7272525791</v>
+        <v>605649.7272525788</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>605649.7272525791</v>
+        <v>605649.7272525788</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>664081.2339590936</v>
+        <v>664081.2339590935</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>642632.8911324653</v>
+        <v>642632.8911324651</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>642632.8911324653</v>
+        <v>642632.8911324651</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>658304.6033496126</v>
+        <v>658304.6033496129</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>658304.6033496126</v>
+        <v>658304.6033496129</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>690861.6544447632</v>
+        <v>690861.6544447636</v>
       </c>
       <c r="C2" t="n">
-        <v>690861.6544447633</v>
+        <v>690861.654444763</v>
       </c>
       <c r="D2" t="n">
-        <v>690861.6544447633</v>
+        <v>690861.6544447634</v>
       </c>
       <c r="E2" t="n">
         <v>628993.0002849244</v>
       </c>
       <c r="F2" t="n">
-        <v>628993.0002849246</v>
+        <v>628993.0002849243</v>
       </c>
       <c r="G2" t="n">
-        <v>690861.6544447634</v>
+        <v>690861.654444764</v>
       </c>
       <c r="H2" t="n">
-        <v>690861.654444764</v>
+        <v>690861.6544447641</v>
       </c>
       <c r="I2" t="n">
-        <v>690861.6544447641</v>
+        <v>690861.6544447638</v>
       </c>
       <c r="J2" t="n">
-        <v>668067.9100692107</v>
+        <v>668067.9100692113</v>
       </c>
       <c r="K2" t="n">
-        <v>668067.9100692113</v>
+        <v>668067.9100692116</v>
       </c>
       <c r="L2" t="n">
         <v>690861.6544447653</v>
       </c>
       <c r="M2" t="n">
-        <v>690861.6544447627</v>
+        <v>690861.654444763</v>
       </c>
       <c r="N2" t="n">
         <v>690861.654444763</v>
       </c>
       <c r="O2" t="n">
-        <v>684661.4877108972</v>
+        <v>684661.4877108973</v>
       </c>
       <c r="P2" t="n">
-        <v>684661.4877108973</v>
+        <v>684661.4877108975</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8415.473351528368</v>
+        <v>8415.473351528404</v>
       </c>
       <c r="E3" t="n">
-        <v>118993.6101405802</v>
+        <v>118993.6101405801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46058.92734773044</v>
+        <v>46058.9273477305</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>211812.5155937559</v>
+        <v>211812.515593756</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>68635.34537089537</v>
+        <v>68635.34537089549</v>
       </c>
       <c r="M3" t="n">
-        <v>19582.70168423369</v>
+        <v>19582.70168423358</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40069.40998430325</v>
+        <v>40069.40998430342</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26451,13 +26451,13 @@
         <v>187302.9854962235</v>
       </c>
       <c r="N4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
       <c r="O4" t="n">
-        <v>183389.0956459938</v>
+        <v>183389.0956459939</v>
       </c>
       <c r="P4" t="n">
-        <v>183389.0956459937</v>
+        <v>183389.0956459939</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63918.86346937149</v>
+        <v>63918.86346937148</v>
       </c>
       <c r="C5" t="n">
-        <v>63918.86346937149</v>
+        <v>63918.86346937148</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47226.88953147926</v>
+        <v>47226.88953147925</v>
       </c>
       <c r="F5" t="n">
-        <v>47226.88953147926</v>
+        <v>47226.88953147925</v>
       </c>
       <c r="G5" t="n">
-        <v>52067.0494854747</v>
+        <v>52067.04948547469</v>
       </c>
       <c r="H5" t="n">
-        <v>52067.04948547471</v>
+        <v>52067.04948547469</v>
       </c>
       <c r="I5" t="n">
-        <v>52067.04948547471</v>
+        <v>52067.04948547469</v>
       </c>
       <c r="J5" t="n">
         <v>55772.13857729292</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729294</v>
+        <v>55772.13857729292</v>
       </c>
       <c r="L5" t="n">
-        <v>56497.43851823983</v>
+        <v>56497.43851823982</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26506,10 +26506,10 @@
         <v>52802.81689264637</v>
       </c>
       <c r="O5" t="n">
-        <v>52317.7602974952</v>
+        <v>52317.76029749522</v>
       </c>
       <c r="P5" t="n">
-        <v>52317.7602974952</v>
+        <v>52317.76029749522</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256026.9317205047</v>
+        <v>256026.9317205051</v>
       </c>
       <c r="C6" t="n">
-        <v>422989.087767317</v>
+        <v>422989.0877673167</v>
       </c>
       <c r="D6" t="n">
-        <v>419900.7132422652</v>
+        <v>419900.7132422653</v>
       </c>
       <c r="E6" t="n">
-        <v>312860.8331487276</v>
+        <v>312688.9757760615</v>
       </c>
       <c r="F6" t="n">
-        <v>431854.4432893081</v>
+        <v>431682.5859166415</v>
       </c>
       <c r="G6" t="n">
-        <v>403836.4938304351</v>
+        <v>403836.4938304355</v>
       </c>
       <c r="H6" t="n">
-        <v>449895.4211781659</v>
+        <v>449895.4211781662</v>
       </c>
       <c r="I6" t="n">
-        <v>449895.4211781661</v>
+        <v>449895.4211781658</v>
       </c>
       <c r="J6" t="n">
-        <v>226906.9937720653</v>
+        <v>226843.677815467</v>
       </c>
       <c r="K6" t="n">
-        <v>438719.5093658217</v>
+        <v>438656.1934092234</v>
       </c>
       <c r="L6" t="n">
-        <v>377949.107890571</v>
+        <v>377949.1078905709</v>
       </c>
       <c r="M6" t="n">
-        <v>431173.1503716591</v>
+        <v>431173.1503716594</v>
       </c>
       <c r="N6" t="n">
         <v>450755.852055893</v>
       </c>
       <c r="O6" t="n">
-        <v>408885.2217831049</v>
+        <v>408867.9990977329</v>
       </c>
       <c r="P6" t="n">
-        <v>448954.6317674085</v>
+        <v>448937.4090820364</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H2" t="n">
         <v>171.0038246928719</v>
@@ -26713,7 +26713,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="P2" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
     </row>
     <row r="3">
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199259</v>
+        <v>498.2115702199257</v>
       </c>
       <c r="C4" t="n">
-        <v>498.2115702199259</v>
+        <v>498.2115702199258</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.9165945291063</v>
+        <v>619.9165945291061</v>
       </c>
       <c r="F4" t="n">
-        <v>619.9165945291063</v>
+        <v>619.9165945291061</v>
       </c>
       <c r="G4" t="n">
-        <v>619.9165945291063</v>
+        <v>619.9165945291061</v>
       </c>
       <c r="H4" t="n">
-        <v>619.9165945291063</v>
+        <v>619.9165945291061</v>
       </c>
       <c r="I4" t="n">
-        <v>619.9165945291063</v>
+        <v>619.9165945291061</v>
       </c>
       <c r="J4" t="n">
         <v>760.463453835252</v>
       </c>
       <c r="K4" t="n">
-        <v>760.4634538352522</v>
+        <v>760.463453835252</v>
       </c>
       <c r="L4" t="n">
-        <v>733.3718227901877</v>
+        <v>733.3718227901875</v>
       </c>
       <c r="M4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="N4" t="n">
         <v>638.7584295260717</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.57365918466304</v>
+        <v>57.57365918466313</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.8565063235456</v>
+        <v>55.85650632354559</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>85.79418171361921</v>
+        <v>85.79418171361937</v>
       </c>
       <c r="M2" t="n">
-        <v>24.47837710529211</v>
+        <v>24.47837710529197</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.08676248037906</v>
+        <v>50.08676248037928</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199259</v>
+        <v>498.2115702199257</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.09163104506445</v>
+        <v>27.09163104506456</v>
       </c>
       <c r="E4" t="n">
-        <v>94.61339326411598</v>
+        <v>94.61339326411576</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260715</v>
+        <v>638.758429526072</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.57365918466304</v>
+        <v>57.57365918466313</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.8565063235456</v>
+        <v>55.85650632354559</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.2115702199259</v>
+        <v>498.2115702199257</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.09163104506445</v>
+        <v>27.09163104506456</v>
       </c>
       <c r="M4" t="n">
-        <v>94.61339326411598</v>
+        <v>94.61339326411576</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>388.6111855287801</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>79.85152081930363</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27464,19 +27464,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.09808798112606</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>59.07154621611087</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>200.9287387265313</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>217.3667874383739</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>64.88451199752188</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>282.7912730479691</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.382445873137755</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>165.7857650088879</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>2.553487418999026</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>129.1404950786512</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>151.4202351459296</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27910,13 +27910,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>59.5745150694529</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27938,13 +27938,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>35.94956097976362</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>77.01947232901799</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>93.47784511364532</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28065,10 +28065,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28111,19 +28111,19 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
+        <v>34.34031316762946</v>
+      </c>
+      <c r="N11" t="n">
         <v>113.4301655082087</v>
-      </c>
-      <c r="L11" t="n">
-        <v>10.64205129852678</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>87.68688454172829</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>28.50045832572349</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28348,16 +28348,16 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
-        <v>10.64205129852674</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L14" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>34.34031316762946</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28372,7 +28372,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>19.98842208488868</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28457,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>87.68688454172739</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="D17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="F17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="G17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28597,40 +28597,40 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="O17" t="n">
-        <v>122.3550639456184</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="P17" t="n">
-        <v>171.0038246928718</v>
+        <v>32.62316030651232</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>171.0038246928718</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="18">
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>19.9884220848886</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>87.68688454172737</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28740,7 +28740,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
-        <v>146.7057807606813</v>
+        <v>146.7057807606807</v>
       </c>
       <c r="J19" t="n">
         <v>59.456666199969</v>
@@ -28770,25 +28770,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="20">
@@ -28834,19 +28834,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>32.62316030651232</v>
       </c>
       <c r="Q20" t="n">
-        <v>122.3550639456183</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>171.0038246928719</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>171.0038246928719</v>
@@ -28889,16 +28889,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>19.98842208488868</v>
       </c>
       <c r="G21" t="n">
-        <v>87.6868845417273</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.944766807332513</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>151.971330379098</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>171.0038246928719</v>
@@ -29065,13 +29065,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>122.3550639456174</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>122.3550639456183</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>171.0038246928719</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>171.0038246928719</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>87.6868845417282</v>
       </c>
       <c r="H24" t="n">
-        <v>19.98842208488772</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>154.9006152318131</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>167.2305511458285</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>42.09673474018035</v>
       </c>
       <c r="R25" t="n">
         <v>148.0265635717656</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.56549128550358</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29551,7 +29551,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082085</v>
       </c>
       <c r="Q29" t="n">
         <v>113.4301655082087</v>
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="I30" t="n">
-        <v>14.56549128550359</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="C32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="D32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="E32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="F32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="G32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="H32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="I32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="J32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="K32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>141.650688037165</v>
       </c>
       <c r="M32" t="n">
-        <v>63.69544852598824</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>141.650688037165</v>
       </c>
       <c r="O32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="P32" t="n">
-        <v>141.6506880371649</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6506880371649</v>
+        <v>63.69544852598648</v>
       </c>
       <c r="R32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="S32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="T32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="U32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="V32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="W32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="X32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
     </row>
     <row r="33">
@@ -29843,10 +29843,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.56549128550336</v>
       </c>
       <c r="I33" t="n">
-        <v>14.56549128550337</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29904,40 +29904,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="C34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="D34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="E34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="F34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="G34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="H34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="I34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="J34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="K34" t="n">
-        <v>141.6506880371649</v>
+        <v>125.2917649138131</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>141.650688037165</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>125.2917649138143</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="S34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="T34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="U34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="V34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="X34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.650688037165</v>
       </c>
     </row>
     <row r="35">
@@ -30007,19 +30007,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>116.9787331327009</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30028,10 +30028,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>40.5815716293491</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>14.56549128550374</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
@@ -30174,13 +30174,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>28.5831152592616</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30244,7 +30244,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>40.58157162934948</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30256,19 +30256,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>166.1290651424569</v>
+        <v>116.9787331327008</v>
       </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30320,7 +30320,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.56549128550371</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30399,7 +30399,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>166.1290651424569</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>46.68561682995295</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>43.36703200300073</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30457,43 +30457,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="C41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="D41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="E41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="F41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="G41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="H41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="I41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>57.89080315884885</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="M41" t="n">
-        <v>160.3593212992904</v>
+        <v>128.5182208190333</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>160.3593212992904</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="T41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="U41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="V41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="W41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="X41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="Y41" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.56549128550326</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="C43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="H43" t="n">
         <v>157.7789187685189</v>
@@ -30639,7 +30639,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>152.6784554438782</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>105.5545469714317</v>
       </c>
       <c r="Q43" t="n">
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>160.3593212992904</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="T43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="U43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="V43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="W43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="X43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
     </row>
     <row r="44">
@@ -30694,31 +30694,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="C44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="D44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="E44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="F44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="G44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="H44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="I44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30727,43 +30727,43 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>57.890803158849</v>
+        <v>57.89080315884831</v>
       </c>
       <c r="P44" t="n">
-        <v>160.3593212992904</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>160.3593212992904</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="S44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="T44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="U44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="V44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="W44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="X44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="Y44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
     </row>
     <row r="45">
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I45" t="n">
-        <v>14.56549128550325</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="C46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30864,10 +30864,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>157.9665920695555</v>
       </c>
       <c r="G46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>105.5545469714341</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>136.6957712592047</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="T46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="U46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="V46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="W46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="X46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992906</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34699,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>135.2941195435654</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34708,7 +34708,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
-        <v>382.1528875633492</v>
+        <v>274.8809747384466</v>
       </c>
       <c r="O2" t="n">
         <v>308.0854388614484</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
@@ -34784,16 +34784,16 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>498.2115702199259</v>
+        <v>449.8538496497534</v>
       </c>
       <c r="O3" t="n">
-        <v>223.8813330487452</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>60.84000430574714</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>242.5660323684674</v>
@@ -34948,13 +34948,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>308.0854388614484</v>
+        <v>273.5393283323093</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>20.78394361225887</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>321.1592947531771</v>
       </c>
       <c r="M6" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>498.2115702199258</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>333.3672301212949</v>
       </c>
       <c r="N9" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>186.155967803972</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>355.9961978766761</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>362.0414180509977</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>431.5515922111526</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O11" t="n">
         <v>308.0854388614484</v>
@@ -35431,7 +35431,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910355</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>218.0653595001924</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35501,7 +35501,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486372</v>
+        <v>321.555512723278</v>
       </c>
       <c r="P12" t="n">
         <v>305.147393207775</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>83.36785359429003</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684674</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L14" t="n">
-        <v>464.8295322606797</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>431.5515922111526</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
@@ -35668,7 +35668,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910355</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>218.0653595001924</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
-        <v>489.93268031336</v>
+        <v>476.1894008638661</v>
       </c>
       <c r="N15" t="n">
         <v>516.4299455789112</v>
@@ -35893,19 +35893,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>553.1567122562211</v>
       </c>
       <c r="O17" t="n">
-        <v>430.4405028070668</v>
+        <v>479.0892635543203</v>
       </c>
       <c r="P17" t="n">
-        <v>401.4653362646427</v>
+        <v>263.0846718782832</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>81.27192105376659</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>218.0653595001924</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>489.93268031336</v>
+        <v>476.1894008638661</v>
       </c>
       <c r="N18" t="n">
         <v>516.4299455789112</v>
@@ -36036,7 +36036,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.94476680733304</v>
+        <v>3.94476680733248</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -36130,19 +36130,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N20" t="n">
-        <v>382.1528875633492</v>
+        <v>553.1567122562211</v>
       </c>
       <c r="O20" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4615115717709</v>
+        <v>263.0846718782832</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.7411787805042</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
-        <v>81.27192105376668</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>294.9109615979912</v>
+        <v>355.7737358738551</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
@@ -36288,7 +36288,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>123.5632938271309</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.944766807332387</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>351.3993667524709</v>
+        <v>473.7544306980883</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>504.5079515089675</v>
+        <v>553.1567122562211</v>
       </c>
       <c r="O23" t="n">
         <v>308.0854388614484</v>
@@ -36376,7 +36376,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>266.3899395277577</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R23" t="n">
         <v>81.27192105376668</v>
@@ -36440,7 +36440,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233491</v>
+        <v>294.9109615979903</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.7592288863527</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36501,7 +36501,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.944766807332466</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3.944766807332502</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P26" t="n">
         <v>343.8916770799797</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910355</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36759,19 +36759,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M28" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N28" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P28" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536088</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -36847,13 +36847,13 @@
         <v>421.5156043696572</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8916770799797</v>
+        <v>343.8916770799794</v>
       </c>
       <c r="Q29" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -37008,7 +37008,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3764903329282</v>
+        <v>214.3764903329283</v>
       </c>
       <c r="K32" t="n">
         <v>384.2167204056324</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>493.0500547896359</v>
       </c>
       <c r="M32" t="n">
-        <v>460.9067275695114</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>382.1528875633492</v>
+        <v>523.8035756005143</v>
       </c>
       <c r="O32" t="n">
-        <v>449.7361268986133</v>
+        <v>449.7361268986134</v>
       </c>
       <c r="P32" t="n">
-        <v>372.1121996089358</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.0368028720508</v>
+        <v>159.0815633608723</v>
       </c>
       <c r="R32" t="n">
-        <v>51.91878439805973</v>
+        <v>51.91878439805978</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>82.19402183719592</v>
+        <v>82.19402183719598</v>
       </c>
       <c r="K34" t="n">
-        <v>175.5943120216532</v>
+        <v>159.2353888983014</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>260.8360477620152</v>
       </c>
       <c r="N34" t="n">
         <v>119.6185270197983</v>
@@ -37242,7 +37242,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>188.8962939321353</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
-        <v>351.3993667524709</v>
+        <v>468.3780998851719</v>
       </c>
       <c r="M35" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
@@ -37324,10 +37324,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.967686464235</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
         <v>159.3652826117113</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
-        <v>128.0413440427865</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
         <v>63.604529018321</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>113.3073739251128</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
@@ -37552,19 +37552,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>261.5151799773428</v>
+        <v>212.3648479675866</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
         <v>159.3652826117113</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>23.36805118910868</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37713,16 +37713,16 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>146.1438456134779</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.215064070152879</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>300.4568355273163</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>511.7586880517613</v>
+        <v>511.7586880517616</v>
       </c>
       <c r="M41" t="n">
-        <v>557.5706003428136</v>
+        <v>525.7294998625565</v>
       </c>
       <c r="N41" t="n">
-        <v>382.1528875633492</v>
+        <v>542.5122088626399</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
@@ -37801,7 +37801,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
-        <v>70.62741766018522</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L42" t="n">
-        <v>369.5170153233491</v>
+        <v>369.5170153233492</v>
       </c>
       <c r="M42" t="n">
         <v>489.93268031336</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.22178924390919</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>33.9436239844883</v>
@@ -37953,13 +37953,13 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>63.604529018321</v>
+        <v>169.1590759897527</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>12.33275772752484</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>233.0851235950539</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
@@ -38023,22 +38023,22 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>397.2112790435232</v>
+        <v>557.5706003428138</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>365.9762420202974</v>
+        <v>365.9762420202968</v>
       </c>
       <c r="P44" t="n">
-        <v>390.8208328710613</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>255.7454361341762</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>70.62741766018519</v>
+        <v>70.62741766018542</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>7.010743645074876</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>207.1778594969488</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
         <v>119.1853597248502</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>98.54380332635685</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
